--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCCA3FC-5D85-49AE-8AF7-35363E19EB08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570918D5-C26E-40DC-86E4-3A8550FEA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -31,17 +31,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -824,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1205,6 +1194,21 @@
   </si>
   <si>
     <t>Emission Factor</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind mine</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
   </si>
 </sst>
 </file>
@@ -2589,6 +2593,201 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2597,201 +2796,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3155,7 +3159,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3635,69 +3639,69 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="61" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="61" customWidth="1"/>
-    <col min="10" max="10" width="3" style="61" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="61" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="61" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="58" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="123" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="69"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -3722,11 +3726,11 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="58"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="69"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
@@ -3751,151 +3755,160 @@
       <c r="I6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="58"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="58"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="77" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="58"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="58"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="58"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" thickBot="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="58"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="122"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="88" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="89" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="88" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3917,44 +3930,44 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="25" style="61" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="61" customWidth="1"/>
-    <col min="6" max="7" width="10" style="61" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="61" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="10" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
+    <col min="6" max="7" width="10" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="29" t="s">
@@ -4015,176 +4028,188 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="77" t="s">
+      <c r="C8" s="75"/>
+      <c r="D8" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="B9" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="98" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="98" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="98" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="98" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="98" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="98" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E22" s="98" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="98" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="98" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4201,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4400,10 +4425,21 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="16" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_EX_WIND_ON</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Wind mine</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>SEC_Comm!D9</f>
+        <v>Wind Onshore</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
@@ -4452,49 +4488,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="61" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" style="61" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="49" t="s">
@@ -4528,7 +4564,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="36">
+    <row r="6" spans="2:12" ht="38.25">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4560,7 +4596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="24">
+    <row r="7" spans="2:12" ht="25.5">
       <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
@@ -4587,58 +4623,58 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="115" t="str">
+      <c r="B8" s="111" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="115" t="str">
+      <c r="C8" s="111" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="116" t="str">
+      <c r="D8" s="112" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="116" t="str">
+      <c r="E8" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="113">
         <v>6.5</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="113">
         <v>0.3</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="118">
+      <c r="I8" s="114">
         <v>1</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="118">
+      <c r="K8" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="125"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="125"/>
+      <c r="E15" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4657,45 +4693,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="61"/>
-    <col min="2" max="2" width="17.140625" style="61" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="61" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="49" t="s">
@@ -4729,7 +4765,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="36">
+    <row r="6" spans="2:11" ht="38.25">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4762,42 +4798,42 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="118"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="108" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4815,36 +4851,36 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24">
+    <row r="17" spans="2:7" ht="25.5">
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="115" t="str">
+      <c r="B18" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="112">
         <v>200</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="G18" s="61">
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="G18" s="58">
         <f>+C18/PP!G8</f>
         <v>666.66666666666674</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4859,7 +4895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4920,11 +4956,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -4970,18 +5006,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5129,13 +5165,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570918D5-C26E-40DC-86E4-3A8550FEA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878B8F6-72A9-4249-B15C-9B6AFD9F7BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4227,7 +4227,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4434,8 +4434,8 @@
         <v>Wind mine</v>
       </c>
       <c r="D9" s="17" t="str">
-        <f>SEC_Comm!D9</f>
-        <v>Wind Onshore</v>
+        <f>SEC_Comm!C9</f>
+        <v>WIND_ON</v>
       </c>
       <c r="E9" s="19">
         <v>1E-3</v>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878B8F6-72A9-4249-B15C-9B6AFD9F7BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5131C-0A10-4A5B-9BE3-66A93936B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1209,6 +1209,12 @@
   </si>
   <si>
     <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
   </si>
 </sst>
 </file>
@@ -3930,7 +3936,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4097,13 +4103,25 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74"/>
+      <c r="B10" s="74" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
     </row>
@@ -4226,7 +4244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4482,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4659,15 +4677,36 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
+      <c r="B9" s="116" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C9" s="116" t="str">
+        <f>SEC_Processes!E10</f>
+        <v>Wind Turbine Onshore</v>
+      </c>
+      <c r="D9" s="117" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E9" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="118">
+        <v>1.345</v>
+      </c>
+      <c r="G9" s="118">
+        <v>1</v>
+      </c>
+      <c r="H9" s="114">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="119">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="120">
+        <v>1</v>
+      </c>
       <c r="K9" s="120"/>
     </row>
     <row r="14" spans="2:12">

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5131C-0A10-4A5B-9BE3-66A93936B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242B693-EC8A-494C-895D-D8EC4BC4DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="141">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1215,6 +1215,27 @@
   </si>
   <si>
     <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>Photovoltaic farm</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Sun power for fotovoltaic</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV</t>
+  </si>
+  <si>
+    <t>Sunshine mine from sun</t>
+  </si>
+  <si>
+    <t>PV farm</t>
   </si>
 </sst>
 </file>
@@ -3645,7 +3666,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3834,12 +3855,22 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
+      <c r="B10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="73" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
@@ -3936,7 +3967,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4126,24 +4157,48 @@
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="70"/>
+      <c r="B11" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="71"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="D11" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="94"/>
+      <c r="B12" s="94" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
+      <c r="D12" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="97"/>
       <c r="J12" s="97"/>
     </row>
@@ -4245,7 +4300,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4461,10 +4516,21 @@
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="11" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>MIN_EX_PV</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>Sunshine mine from sun</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
@@ -4501,7 +4567,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4708,6 +4774,33 @@
         <v>1</v>
       </c>
       <c r="K9" s="120"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="58" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="58">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="114">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0.33</v>
+      </c>
+      <c r="J10" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="121"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242B693-EC8A-494C-895D-D8EC4BC4DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D58AF-41A3-4D3E-A9A4-840C00807207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4566,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4776,6 +4776,10 @@
       <c r="K9" s="120"/>
     </row>
     <row r="10" spans="2:12">
+      <c r="B10" s="58" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>ELE_EX_PV</v>
+      </c>
       <c r="C10" s="58" t="s">
         <v>140</v>
       </c>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6D58AF-41A3-4D3E-A9A4-840C00807207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -28,8 +28,16 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -813,338 +821,374 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+  <si>
+    <t>~FI_Comm</t>
+  </si>
+  <si>
+    <t>Csets</t>
+  </si>
+  <si>
+    <t>CommName</t>
+  </si>
+  <si>
+    <t>CommDesc</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>CTSLvl</t>
+  </si>
+  <si>
+    <t>PeakTS</t>
+  </si>
+  <si>
+    <t>Ctype</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>~FI_Process</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>TechDesc</t>
+  </si>
+  <si>
+    <t>Tact</t>
+  </si>
+  <si>
+    <t>Tcap</t>
+  </si>
+  <si>
+    <t>Tslvl</t>
+  </si>
+  <si>
+    <t>PrimaryCG</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>~FI_T</t>
+  </si>
+  <si>
+    <t>Comm-OUT</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>Primary energy supply</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>\I: Commodity Set</t>
+  </si>
+  <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Sense of Balance Equation</t>
+  </si>
+  <si>
+    <t>Timeslice Level</t>
+  </si>
+  <si>
+    <t>Peak Monitoring</t>
+  </si>
+  <si>
+    <t>Electricity Indicator (CHP)</t>
+  </si>
+  <si>
+    <t>Define processes</t>
+  </si>
   <si>
     <t>Define commodities</t>
   </si>
   <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Froup</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>\I: Technology Name</t>
+  </si>
+  <si>
+    <t>Output Commodity</t>
+  </si>
+  <si>
+    <t>Annual Activity Bound</t>
+  </si>
+  <si>
+    <t>~PRCCOMEMI</t>
+  </si>
+  <si>
+    <t>Emission Commodity Name</t>
+  </si>
+  <si>
+    <t>&lt;- Fuel</t>
+  </si>
+  <si>
+    <t>Fuel2</t>
+  </si>
+  <si>
+    <t>Fuel3 …</t>
+  </si>
+  <si>
+    <t>Technology Specific Fuel Emission Factors</t>
+  </si>
+  <si>
+    <t>Emission Factor</t>
+  </si>
+  <si>
+    <t>*TechDesc</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Efficiency (output based)</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Factor</t>
+  </si>
+  <si>
+    <t>Annual Availibility Factor</t>
+  </si>
+  <si>
+    <t>Fix Costs O&amp;M</t>
+  </si>
+  <si>
+    <t>Variable Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>Power Plants - Energy Transformation</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>\I: Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Final Energy Consumption</t>
+  </si>
+  <si>
+    <t>Demand Technology</t>
+  </si>
+  <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
     <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
   </si>
   <si>
-    <t>~FI_Comm</t>
-  </si>
-  <si>
-    <t>Csets</t>
-  </si>
-  <si>
-    <t>CommName</t>
-  </si>
-  <si>
-    <t>CommDesc</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>CTSLvl</t>
-  </si>
-  <si>
-    <t>PeakTS</t>
-  </si>
-  <si>
-    <t>Ctype</t>
-  </si>
-  <si>
-    <t>\I: Commodity Set</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of Balance Equation</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator (CHP)</t>
-  </si>
-  <si>
-    <t>NRG</t>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
   </si>
   <si>
     <t>BROWN_COAL</t>
   </si>
   <si>
+    <t>GWe</t>
+  </si>
+  <si>
+    <t>Demand [PJ]</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>Should have commodity of type DEM as an output</t>
+  </si>
+  <si>
+    <t>\I: Unit</t>
+  </si>
+  <si>
+    <t>PLN/PJ</t>
+  </si>
+  <si>
+    <t>PJ/a</t>
+  </si>
+  <si>
+    <t>Extraction or Import cost</t>
+  </si>
+  <si>
+    <t>ELE_EX_BELCHATOW</t>
+  </si>
+  <si>
+    <t>Belchatow Power Plant</t>
+  </si>
+  <si>
+    <t>MIN_EX_BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal Mine</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
     <t>Brown Coal</t>
   </si>
   <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
     <t>High Voltage Electricity</t>
   </si>
   <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>Define processes</t>
-  </si>
-  <si>
-    <t>~FI_Process</t>
-  </si>
-  <si>
-    <t>Sets</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>TechDesc</t>
-  </si>
-  <si>
-    <t>Tact</t>
-  </si>
-  <si>
-    <t>Tcap</t>
-  </si>
-  <si>
-    <t>Tslvl</t>
-  </si>
-  <si>
-    <t>PrimaryCG</t>
-  </si>
-  <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Froup</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>ELE_EX_BELCHATOW</t>
-  </si>
-  <si>
-    <t>Belchatow Power Plant</t>
-  </si>
-  <si>
-    <t>GWe</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MIN_EX_BROWN_COAL</t>
-  </si>
-  <si>
-    <t>Brown Coal Mine</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Should have commodity of type DEM as an output</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Primary energy supply</t>
-  </si>
-  <si>
-    <t>~FI_T</t>
-  </si>
-  <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-OUT</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>\I: Technology Name</t>
-  </si>
-  <si>
-    <t>Output Commodity</t>
-  </si>
-  <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
-    <t>Annual Activity Bound</t>
-  </si>
-  <si>
-    <t>\I: Unit</t>
-  </si>
-  <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
-    <t>PJ/a</t>
-  </si>
-  <si>
-    <t>Power Plants - Energy Transformation</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Efficiency (output based)</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>Annual Availibility Factor</t>
-  </si>
-  <si>
-    <t>Fix Costs O&amp;M</t>
-  </si>
-  <si>
-    <t>Variable Cost O&amp;M</t>
-  </si>
-  <si>
     <t>PJ output / PJ input</t>
   </si>
   <si>
@@ -1158,84 +1202,6 @@
   </si>
   <si>
     <t>PLN / GJ Activity</t>
-  </si>
-  <si>
-    <t>Demand Technology</t>
-  </si>
-  <si>
-    <t>Final Energy Consumption</t>
-  </si>
-  <si>
-    <t>~FI_T:DEMAND</t>
-  </si>
-  <si>
-    <t>\I: Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
-    <t>Technology Specific Fuel Emission Factors</t>
-  </si>
-  <si>
-    <t>~PRCCOMEMI</t>
-  </si>
-  <si>
-    <t>&lt;- Fuel</t>
-  </si>
-  <si>
-    <t>Fuel2</t>
-  </si>
-  <si>
-    <t>Fuel3 …</t>
-  </si>
-  <si>
-    <t>Emission Commodity Name</t>
-  </si>
-  <si>
-    <t>Emission Factor</t>
-  </si>
-  <si>
-    <t>MIN_EX_WIND_ON</t>
-  </si>
-  <si>
-    <t>Wind mine</t>
-  </si>
-  <si>
-    <t>PJa</t>
-  </si>
-  <si>
-    <t>WIND_ON</t>
-  </si>
-  <si>
-    <t>Wind Onshore</t>
-  </si>
-  <si>
-    <t>ELE_EX_WIND_TURBINE</t>
-  </si>
-  <si>
-    <t>Wind Turbine Onshore</t>
-  </si>
-  <si>
-    <t>ELE_EX_PV</t>
-  </si>
-  <si>
-    <t>Photovoltaic farm</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>Sun power for fotovoltaic</t>
-  </si>
-  <si>
-    <t>MIN_EX_PV</t>
-  </si>
-  <si>
-    <t>Sunshine mine from sun</t>
-  </si>
-  <si>
-    <t>PV farm</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2437,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
@@ -2530,6 +2500,7 @@
     <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2539,18 +2510,42 @@
     <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2593,6 +2588,27 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2605,215 +2621,69 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3099,6 +2969,7 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -3106,7 +2977,6 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3186,7 +3056,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3665,287 +3535,267 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="3" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.45" customHeight="1">
+      <c r="A4" s="104"/>
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="123" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="117"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="104"/>
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="123"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="F5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="G5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="H5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="J5" s="106"/>
+      <c r="K5" s="117"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
+      <c r="A6" s="104"/>
+      <c r="B6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="106"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="104"/>
+      <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="123"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="123"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="123"/>
+      <c r="C7" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="123"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="123"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="123"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="123"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="123"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="122" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="116"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="122"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="87" t="s">
+      <c r="C17" s="97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="98" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="88" t="s">
+      <c r="C18" s="98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C19" s="97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B20" s="99" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="99" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3967,323 +3817,274 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
-    <col min="6" max="7" width="10" style="58" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="10" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="I6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1">
-      <c r="B6" s="30" t="s">
+      <c r="C17" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C18" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="C19" s="54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="C20" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="C22" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="98" t="s">
+      <c r="C24" s="54" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="98" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="98" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4299,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4315,244 +4116,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="D4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="A4" s="5"/>
+      <c r="D4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="15" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="15" t="str">
         <f>SEC_Processes!E8</f>
         <v>Brown Coal Mine</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="18" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="17">
         <v>100</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="16" t="str">
-        <f>SEC_Processes!D9</f>
-        <v>MIN_EX_WIND_ON</v>
-      </c>
-      <c r="C9" s="16" t="str">
-        <f>SEC_Processes!E9</f>
-        <v>Wind mine</v>
-      </c>
-      <c r="D9" s="17" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="F9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="11" t="str">
-        <f>SEC_Processes!D12</f>
-        <v>MIN_EX_PV</v>
-      </c>
-      <c r="C10" s="11" t="str">
-        <f>SEC_Processes!E12</f>
-        <v>Sunshine mine from sun</v>
-      </c>
-      <c r="D10" s="15" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>PV</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4566,251 +4345,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="39" thickBot="1">
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="38.25">
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="56" t="s">
+    </row>
+    <row r="7" spans="2:12" ht="26.25" thickBot="1">
+      <c r="B7" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="25.5">
-      <c r="B7" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>114</v>
+      <c r="G7" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="111" t="str">
+      <c r="B8" s="62" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="111" t="str">
+      <c r="C8" s="62" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="112" t="str">
+      <c r="D8" s="85" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="85" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="86">
         <v>6.5</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="86">
         <v>0.3</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="87">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="114">
+      <c r="I8" s="87">
         <v>1</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="87">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="116" t="str">
-        <f>SEC_Processes!D10</f>
-        <v>ELE_EX_WIND_TURBINE</v>
-      </c>
-      <c r="C9" s="116" t="str">
-        <f>SEC_Processes!E10</f>
-        <v>Wind Turbine Onshore</v>
-      </c>
-      <c r="D9" s="117" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="E9" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="118">
-        <v>1.345</v>
-      </c>
-      <c r="G9" s="118">
-        <v>1</v>
-      </c>
-      <c r="H9" s="114">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="I9" s="119">
-        <v>0.33</v>
-      </c>
-      <c r="J9" s="120">
-        <v>1</v>
-      </c>
-      <c r="K9" s="120"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="58" t="str">
-        <f>SEC_Processes!D11</f>
-        <v>ELE_EX_PV</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="58" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>PV</v>
-      </c>
-      <c r="E10" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="58">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="G10" s="58">
-        <v>1</v>
-      </c>
-      <c r="H10" s="114">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="I10" s="58">
-        <v>0.33</v>
-      </c>
-      <c r="J10" s="58">
-        <v>1</v>
-      </c>
+    <row r="9" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="121"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="121"/>
+      <c r="E15" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4823,200 +4549,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="58"/>
-    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="B2" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="H5" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="I5" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="39" thickBot="1">
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="2:11" ht="13.5" thickBot="1">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="10" spans="2:11" ht="18">
+      <c r="B10" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="51" t="s">
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="94">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="94">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="95">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="38.25">
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="C17" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="114"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-    </row>
-    <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="108" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="53">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="53">
-        <v>2021</v>
-      </c>
-      <c r="E16" s="54">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="25.5">
-      <c r="B17" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="111" t="str">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="62" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="85">
         <v>200</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="G18" s="58">
-        <f>+C18/PP!G8</f>
-        <v>666.66666666666674</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+    </row>
+    <row r="19" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5042,96 +4762,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="H5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>124</v>
+      <c r="B5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="H5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="39" thickBot="1">
-      <c r="B6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="B6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5142,23 +4862,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -5210,8 +4921,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5300,37 +5011,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Ada\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B85050-E9F0-400A-AC13-86EC419A4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -28,16 +28,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -821,7 +813,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="143">
+  <si>
+    <t>Define commodities</t>
+  </si>
+  <si>
+    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
+  </si>
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -850,9 +848,84 @@
     <t>Ctype</t>
   </si>
   <si>
+    <t>\I: Commodity Set</t>
+  </si>
+  <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Sense of Balance Equation</t>
+  </si>
+  <si>
+    <t>Timeslice Level</t>
+  </si>
+  <si>
+    <t>Peak Monitoring</t>
+  </si>
+  <si>
+    <t>Electricity Indicator (CHP)</t>
+  </si>
+  <si>
     <t>NRG</t>
   </si>
   <si>
+    <t>BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>High Voltage Electricity</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Define processes</t>
+  </si>
+  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -883,15 +956,120 @@
     <t>Vintage</t>
   </si>
   <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Froup</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>ELE_EX_BELCHATOW</t>
+  </si>
+  <si>
+    <t>Belchatow Power Plant</t>
+  </si>
+  <si>
+    <t>GWe</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>MIN_EX_BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal Mine</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Should have commodity of type DEM as an output</t>
+  </si>
+  <si>
     <t>IMP</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Primary energy supply</t>
+  </si>
+  <si>
     <t>~FI_T</t>
   </si>
   <si>
+    <t>*TechDesc</t>
+  </si>
+  <si>
     <t>Comm-OUT</t>
   </si>
   <si>
@@ -901,322 +1079,210 @@
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Primary energy supply</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>\I: Commodity Set</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of Balance Equation</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator (CHP)</t>
-  </si>
-  <si>
-    <t>Define processes</t>
-  </si>
-  <si>
-    <t>Define commodities</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Froup</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
     <t>\I: Technology Name</t>
   </si>
   <si>
     <t>Output Commodity</t>
   </si>
   <si>
+    <t>Extraction or Import cost</t>
+  </si>
+  <si>
     <t>Annual Activity Bound</t>
   </si>
   <si>
+    <t>\I: Unit</t>
+  </si>
+  <si>
+    <t>PLN/PJ</t>
+  </si>
+  <si>
+    <t>PJ/a</t>
+  </si>
+  <si>
+    <t>Power Plants - Energy Transformation</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Efficiency (output based)</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Factor</t>
+  </si>
+  <si>
+    <t>Annual Availibility Factor</t>
+  </si>
+  <si>
+    <t>Fix Costs O&amp;M</t>
+  </si>
+  <si>
+    <t>Variable Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>PJ output / PJ input</t>
+  </si>
+  <si>
+    <t>PJ / a / GWe</t>
+  </si>
+  <si>
+    <t>hours / 8760 hours</t>
+  </si>
+  <si>
+    <t>PLN / kWe</t>
+  </si>
+  <si>
+    <t>PLN / GJ Activity</t>
+  </si>
+  <si>
+    <t>Demand Technology</t>
+  </si>
+  <si>
+    <t>Final Energy Consumption</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>\I: Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Demand [PJ]</t>
+  </si>
+  <si>
+    <t>Technology Specific Fuel Emission Factors</t>
+  </si>
+  <si>
     <t>~PRCCOMEMI</t>
   </si>
   <si>
+    <t>&lt;- Fuel</t>
+  </si>
+  <si>
+    <t>Fuel2</t>
+  </si>
+  <si>
+    <t>Fuel3 …</t>
+  </si>
+  <si>
     <t>Emission Commodity Name</t>
   </si>
   <si>
-    <t>&lt;- Fuel</t>
-  </si>
-  <si>
-    <t>Fuel2</t>
-  </si>
-  <si>
-    <t>Fuel3 …</t>
-  </si>
-  <si>
-    <t>Technology Specific Fuel Emission Factors</t>
-  </si>
-  <si>
     <t>Emission Factor</t>
   </si>
   <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Efficiency (output based)</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>Annual Availibility Factor</t>
-  </si>
-  <si>
-    <t>Fix Costs O&amp;M</t>
-  </si>
-  <si>
-    <t>Variable Cost O&amp;M</t>
-  </si>
-  <si>
-    <t>Power Plants - Energy Transformation</t>
-  </si>
-  <si>
-    <t>~FI_T:DEMAND</t>
-  </si>
-  <si>
-    <t>\I: Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Final Energy Consumption</t>
-  </si>
-  <si>
-    <t>Demand Technology</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>BROWN_COAL</t>
-  </si>
-  <si>
-    <t>GWe</t>
-  </si>
-  <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>Should have commodity of type DEM as an output</t>
-  </si>
-  <si>
-    <t>\I: Unit</t>
-  </si>
-  <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
-    <t>PJ/a</t>
-  </si>
-  <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
-    <t>ELE_EX_BELCHATOW</t>
-  </si>
-  <si>
-    <t>Belchatow Power Plant</t>
-  </si>
-  <si>
-    <t>MIN_EX_BROWN_COAL</t>
-  </si>
-  <si>
-    <t>Brown Coal Mine</t>
-  </si>
-  <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
-    <t>Brown Coal</t>
-  </si>
-  <si>
-    <t>High Voltage Electricity</t>
-  </si>
-  <si>
-    <t>PJ output / PJ input</t>
-  </si>
-  <si>
-    <t>PJ / a / GWe</t>
-  </si>
-  <si>
-    <t>hours / 8760 hours</t>
-  </si>
-  <si>
-    <t>PLN / kWe</t>
-  </si>
-  <si>
-    <t>PLN / GJ Activity</t>
+    <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Mine</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>Maximum output</t>
+  </si>
+  <si>
+    <t>Limited output</t>
+  </si>
+  <si>
+    <t>Coal Price</t>
+  </si>
+  <si>
+    <t>Fuel cost</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>Photovoltaic Farm</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="21">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0."/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="#.00"/>
+    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="181" formatCode="yyyy"/>
+    <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="94">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1600,8 +1666,208 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="BERNHARD"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="37"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Small Fonts"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color indexed="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1796,8 +2062,88 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="48"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2092,113 +2438,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="48"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="41"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="medium">
+        <color indexed="41"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="39"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="39"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="39"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="340">
+  <cellStyleXfs count="767">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2215,199 +2619,238 @@
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2415,288 +2858,1122 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="6" fillId="37" borderId="28">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="7" fillId="39" borderId="30" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="31">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="22" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="79" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="3" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="9" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="17" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="11" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="15" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="19" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="18" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="42" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="10" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="43" borderId="33" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="81" fillId="45" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="83" fillId="48" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="84" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="30"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="34" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="86" fillId="0" borderId="29" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="87" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="277"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="340">
+  <cellStyles count="767">
+    <cellStyle name="20 % - Akzent1 2" xfId="339" xr:uid="{5FF29FE0-F554-42C1-B062-836A4C01766E}"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="340" xr:uid="{F4B79026-DB2D-4CC4-92F1-155638AD9F95}"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="341" xr:uid="{CA19C6B5-3AD7-4CFA-8142-F6C1BCF24029}"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="342" xr:uid="{F9793D1E-7FAD-407E-AF12-99B4EB61E180}"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="343" xr:uid="{AE8FDD48-2678-400C-AD45-201C583B2526}"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="344" xr:uid="{19A21D20-4ADA-434C-A367-460B39C75E68}"/>
+    <cellStyle name="20% - Accent1" xfId="345" xr:uid="{82636C10-0535-49C7-9BD1-FE73665A1806}"/>
+    <cellStyle name="20% - Accent2" xfId="346" xr:uid="{03885C7F-C1EC-4203-94C6-4457DF8D2B75}"/>
+    <cellStyle name="20% - Accent3" xfId="347" xr:uid="{E8956C53-84B6-444D-AB7A-34B8BB6AE954}"/>
+    <cellStyle name="20% - Accent4" xfId="348" xr:uid="{4943E4B9-6F0F-4CAB-B233-D957715893BF}"/>
+    <cellStyle name="20% - Accent5" xfId="349" xr:uid="{D1454749-6E7E-4D62-B85C-38F385F4AACB}"/>
+    <cellStyle name="20% - Accent6" xfId="350" xr:uid="{F8C007D7-5B8A-441E-A838-A7B6CA5A7AC6}"/>
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - akcent 1 10" xfId="351" xr:uid="{314AC25D-BA33-40DF-8B2C-C03408E3F434}"/>
     <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% - akcent 1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2704,7 +3981,9 @@
     <cellStyle name="20% - akcent 1 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - akcent 1 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="20% - akcent 1 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - akcent 1 9" xfId="352" xr:uid="{5BCC959B-55CB-47AC-85B8-0595AA4F58F2}"/>
     <cellStyle name="20% - akcent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - akcent 2 10" xfId="353" xr:uid="{D9B605DE-69A7-49B8-A2DE-F9FBBB99433D}"/>
     <cellStyle name="20% - akcent 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - akcent 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% - akcent 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2712,7 +3991,9 @@
     <cellStyle name="20% - akcent 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% - akcent 2 7" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% - akcent 2 8" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - akcent 2 9" xfId="354" xr:uid="{D36AAC3F-7AA6-4FF1-9374-4EC15A5D87D7}"/>
     <cellStyle name="20% - akcent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - akcent 3 10" xfId="355" xr:uid="{60C4D767-AC6E-461D-898D-55D2D186C3FB}"/>
     <cellStyle name="20% - akcent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% - akcent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="20% - akcent 3 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -2720,7 +4001,9 @@
     <cellStyle name="20% - akcent 3 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="20% - akcent 3 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="20% - akcent 3 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - akcent 3 9" xfId="356" xr:uid="{AA31D3F2-D7DD-4C2A-A410-92C71EBC4168}"/>
     <cellStyle name="20% - akcent 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - akcent 4 10" xfId="357" xr:uid="{922CA384-C112-45AB-80AE-400425F7AE79}"/>
     <cellStyle name="20% - akcent 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="20% - akcent 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="20% - akcent 4 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
@@ -2728,7 +4011,9 @@
     <cellStyle name="20% - akcent 4 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="20% - akcent 4 7" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="20% - akcent 4 8" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - akcent 4 9" xfId="358" xr:uid="{277C09CF-E4C4-496F-9D6B-F953469AB68A}"/>
     <cellStyle name="20% - akcent 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - akcent 5 10" xfId="359" xr:uid="{261D9022-D151-4D8B-AD82-F75BC9B796ED}"/>
     <cellStyle name="20% - akcent 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="20% - akcent 5 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="20% - akcent 5 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -2736,7 +4021,9 @@
     <cellStyle name="20% - akcent 5 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="20% - akcent 5 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="20% - akcent 5 8" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - akcent 5 9" xfId="360" xr:uid="{3D78FADD-1E98-4D5F-B97F-AD118057CAEA}"/>
     <cellStyle name="20% - akcent 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - akcent 6 10" xfId="361" xr:uid="{89C68790-5CCE-4497-991B-E0D83757E8AC}"/>
     <cellStyle name="20% - akcent 6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="20% - akcent 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="20% - akcent 6 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
@@ -2744,7 +4031,23 @@
     <cellStyle name="20% - akcent 6 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="20% - akcent 6 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="20% - akcent 6 8" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - akcent 6 9" xfId="362" xr:uid="{92039F29-A2A2-428C-A732-6A547BB9EA70}"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="363" xr:uid="{8C5F5760-B716-454A-8A3A-DC051131653B}"/>
+    <cellStyle name="2x indented GHG Textfiels 2" xfId="364" xr:uid="{C459858B-4DA2-49E1-987B-B0B495EACAC1}"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="365" xr:uid="{597BB9AA-1213-4672-9A97-264488B5F676}"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="366" xr:uid="{3A87C567-F61E-41FD-923F-3F046C2E7E53}"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="367" xr:uid="{91208B52-94FE-4684-8DD9-4F1C32D54B6A}"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="368" xr:uid="{D97E7268-CC56-4ACC-AAB2-D69A7ED9F834}"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="369" xr:uid="{DB531813-26BE-49C3-9BEF-DF6BB3CEB633}"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="370" xr:uid="{4BDE1296-59B4-412C-AA9C-C14FDB1C0808}"/>
+    <cellStyle name="40% - Accent1" xfId="371" xr:uid="{B15F13DE-43C9-4C2B-A0BE-CBD40F0FC92C}"/>
+    <cellStyle name="40% - Accent2" xfId="372" xr:uid="{75C6AC4C-FA65-4625-82A2-05B21DA547E3}"/>
+    <cellStyle name="40% - Accent3" xfId="373" xr:uid="{927B5580-BDB2-47EA-BD2F-AEDE9DC8137E}"/>
+    <cellStyle name="40% - Accent4" xfId="374" xr:uid="{06A1C0DB-CC24-4B86-A2B0-E32D00997F8E}"/>
+    <cellStyle name="40% - Accent5" xfId="375" xr:uid="{2A0989CD-8DD8-4FAE-9337-D6EC5E4A3B65}"/>
+    <cellStyle name="40% - Accent6" xfId="376" xr:uid="{02C31803-4C0A-4C1A-8FD3-4D1D192CCAF7}"/>
     <cellStyle name="40% - akcent 1" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - akcent 1 10" xfId="377" xr:uid="{071EC49A-1791-48F8-97AA-9F1E9B87D06F}"/>
     <cellStyle name="40% - akcent 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="40% - akcent 1 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="40% - akcent 1 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -2752,7 +4055,9 @@
     <cellStyle name="40% - akcent 1 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="40% - akcent 1 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="40% - akcent 1 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - akcent 1 9" xfId="378" xr:uid="{013A4768-935D-4768-B559-C08CC4878683}"/>
     <cellStyle name="40% - akcent 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - akcent 2 10" xfId="379" xr:uid="{55A830E8-E7E8-4CA9-A781-C4AAF02DDA68}"/>
     <cellStyle name="40% - akcent 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="40% - akcent 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="40% - akcent 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
@@ -2760,7 +4065,9 @@
     <cellStyle name="40% - akcent 2 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="40% - akcent 2 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="40% - akcent 2 8" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - akcent 2 9" xfId="380" xr:uid="{52524CF3-1873-4008-BB28-18468DD76BA6}"/>
     <cellStyle name="40% - akcent 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - akcent 3 10" xfId="381" xr:uid="{9CFF60C8-514C-48B4-B5A9-38821233902B}"/>
     <cellStyle name="40% - akcent 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="40% - akcent 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="40% - akcent 3 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
@@ -2768,7 +4075,9 @@
     <cellStyle name="40% - akcent 3 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="40% - akcent 3 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="40% - akcent 3 8" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - akcent 3 9" xfId="382" xr:uid="{65DC547C-6C77-4A15-8457-1301F7CC7EE0}"/>
     <cellStyle name="40% - akcent 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - akcent 4 10" xfId="383" xr:uid="{BADDE5F5-5DF3-4B5F-BF36-8C772D7C12C5}"/>
     <cellStyle name="40% - akcent 4 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="40% - akcent 4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="40% - akcent 4 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
@@ -2776,7 +4085,9 @@
     <cellStyle name="40% - akcent 4 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="40% - akcent 4 7" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="40% - akcent 4 8" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - akcent 4 9" xfId="384" xr:uid="{89504AFE-4C75-47C9-AA98-927B2BD5572A}"/>
     <cellStyle name="40% - akcent 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - akcent 5 10" xfId="385" xr:uid="{D6E66614-9D5B-480D-8A9F-C071316CCE39}"/>
     <cellStyle name="40% - akcent 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="40% - akcent 5 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="40% - akcent 5 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
@@ -2784,7 +4095,9 @@
     <cellStyle name="40% - akcent 5 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="40% - akcent 5 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="40% - akcent 5 8" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - akcent 5 9" xfId="386" xr:uid="{AA426152-38B9-43A3-814B-3730F447097B}"/>
     <cellStyle name="40% - akcent 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - akcent 6 10" xfId="387" xr:uid="{24EF9927-9691-492D-B7D1-9EB7B9482B73}"/>
     <cellStyle name="40% - akcent 6 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="40% - akcent 6 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="40% - akcent 6 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
@@ -2792,7 +4105,23 @@
     <cellStyle name="40% - akcent 6 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="40% - akcent 6 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="40% - akcent 6 8" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - akcent 6 9" xfId="388" xr:uid="{4ABEC8E1-730B-4183-B05B-88FA8886C302}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="389" xr:uid="{A63AF222-76B1-4F96-B00B-081F22988850}"/>
+    <cellStyle name="5x indented GHG Textfiels 2" xfId="390" xr:uid="{E2CBF282-1B3B-4074-96CE-AD1D383E6B35}"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="391" xr:uid="{42D426AA-847D-43B0-8B7B-B3B46C935170}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="392" xr:uid="{C841D75E-6599-4475-863D-20E6A1C4CCA7}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="393" xr:uid="{63D2E466-DCF6-4153-8EAA-E94C71E0C10C}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="394" xr:uid="{CC8AD346-893F-480C-8CEE-424D96BBB29F}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="395" xr:uid="{300BABFE-D07D-4D68-A76C-DCD30AF83CE3}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="396" xr:uid="{994A4B24-4703-4B72-8729-FB095987CE2F}"/>
+    <cellStyle name="60% - Accent1" xfId="397" xr:uid="{6D176682-75CF-4E26-806D-9C1970672E61}"/>
+    <cellStyle name="60% - Accent2" xfId="398" xr:uid="{72C07E2C-82D9-4031-B9DE-97B98F8C9D70}"/>
+    <cellStyle name="60% - Accent3" xfId="399" xr:uid="{FB747BD8-C5C9-41F2-9BFD-41DFF5F42962}"/>
+    <cellStyle name="60% - Accent4" xfId="400" xr:uid="{81556372-B30C-4BD3-9EF6-7FFD40B41BB8}"/>
+    <cellStyle name="60% - Accent5" xfId="401" xr:uid="{B606981A-113B-4CA0-8A50-429D97EA8ABA}"/>
+    <cellStyle name="60% - Accent6" xfId="402" xr:uid="{3C3917C3-4D47-4135-BB3F-F0666D0DB063}"/>
     <cellStyle name="60% - akcent 1" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="60% - akcent 1 10" xfId="403" xr:uid="{F1BAA64A-E405-4B5D-8535-FFE1FBCF13EF}"/>
     <cellStyle name="60% - akcent 1 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
     <cellStyle name="60% - akcent 1 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
     <cellStyle name="60% - akcent 1 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
@@ -2800,7 +4129,9 @@
     <cellStyle name="60% - akcent 1 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="60% - akcent 1 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="60% - akcent 1 8" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="60% - akcent 1 9" xfId="404" xr:uid="{27BBFFCD-3BE6-40D9-8E82-3BA7B2D9EA34}"/>
     <cellStyle name="60% - akcent 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="60% - akcent 2 10" xfId="405" xr:uid="{76B70861-B8BD-446D-BE18-E9FAFAC8E245}"/>
     <cellStyle name="60% - akcent 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="60% - akcent 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
     <cellStyle name="60% - akcent 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
@@ -2808,7 +4139,9 @@
     <cellStyle name="60% - akcent 2 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="60% - akcent 2 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="60% - akcent 2 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="60% - akcent 2 9" xfId="406" xr:uid="{3A0B1A71-E65C-4FE1-81C9-0536069F5DA0}"/>
     <cellStyle name="60% - akcent 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="60% - akcent 3 10" xfId="407" xr:uid="{784FAC09-5B5F-4D0B-9EB3-8E32F492CAA6}"/>
     <cellStyle name="60% - akcent 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
     <cellStyle name="60% - akcent 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
     <cellStyle name="60% - akcent 3 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
@@ -2816,7 +4149,9 @@
     <cellStyle name="60% - akcent 3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="60% - akcent 3 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="60% - akcent 3 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="60% - akcent 3 9" xfId="408" xr:uid="{D805286A-D396-431A-B13E-D0D8C2DB7D80}"/>
     <cellStyle name="60% - akcent 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="60% - akcent 4 10" xfId="409" xr:uid="{BE9FFB82-D67D-4B18-8A31-86CBDDCF7680}"/>
     <cellStyle name="60% - akcent 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="60% - akcent 4 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="60% - akcent 4 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
@@ -2824,7 +4159,9 @@
     <cellStyle name="60% - akcent 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="60% - akcent 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
     <cellStyle name="60% - akcent 4 8" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="60% - akcent 4 9" xfId="410" xr:uid="{4BE2CA33-5FE3-4BEC-8952-6E3B87338B3D}"/>
     <cellStyle name="60% - akcent 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="60% - akcent 5 10" xfId="411" xr:uid="{78E063FC-AC6F-4EAA-88F3-CDE89244FB2D}"/>
     <cellStyle name="60% - akcent 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="60% - akcent 5 3" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
     <cellStyle name="60% - akcent 5 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
@@ -2832,7 +4169,9 @@
     <cellStyle name="60% - akcent 5 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
     <cellStyle name="60% - akcent 5 7" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="60% - akcent 5 8" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="60% - akcent 5 9" xfId="412" xr:uid="{DE928582-625E-4828-9F47-AFB72034E3B8}"/>
     <cellStyle name="60% - akcent 6" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="60% - akcent 6 10" xfId="413" xr:uid="{9C4F5DDE-5293-40B2-9778-90916C5F8DD2}"/>
     <cellStyle name="60% - akcent 6 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="60% - akcent 6 3" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="60% - akcent 6 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
@@ -2840,7 +4179,16 @@
     <cellStyle name="60% - akcent 6 6" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="60% - akcent 6 7" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="60% - akcent 6 8" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="60% - akcent 6 9" xfId="414" xr:uid="{8330C18F-FA29-41E3-9FEF-EB1A148FF87D}"/>
+    <cellStyle name="Accent1" xfId="415" xr:uid="{755655B4-DCA3-4F68-8115-8C8592569A96}"/>
+    <cellStyle name="Accent2" xfId="416" xr:uid="{34F8DC9A-6D27-4BC3-8058-B42D56946983}"/>
+    <cellStyle name="Accent3" xfId="417" xr:uid="{C596C202-455F-4520-8343-C37ED1E525AB}"/>
+    <cellStyle name="Accent4" xfId="418" xr:uid="{AB6F1629-D4CB-49A0-8C10-F5DA7A2C865B}"/>
+    <cellStyle name="Accent5" xfId="419" xr:uid="{6B9D174D-92D3-462B-B874-D8A596421E68}"/>
+    <cellStyle name="Accent6" xfId="420" xr:uid="{4D6B11A3-8898-4F66-92B9-01D9A4BD7178}"/>
+    <cellStyle name="Actual Date" xfId="421" xr:uid="{AAE224FE-E7B4-4B5C-AAFD-4C2807F51EA9}"/>
     <cellStyle name="Akcent 1" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Akcent 1 10" xfId="422" xr:uid="{B79BC4C7-9818-4AFE-BED7-FBB4875DC51F}"/>
     <cellStyle name="Akcent 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
     <cellStyle name="Akcent 1 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="Akcent 1 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
@@ -2848,7 +4196,9 @@
     <cellStyle name="Akcent 1 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="Akcent 1 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="Akcent 1 8" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Akcent 1 9" xfId="423" xr:uid="{D770C23F-E949-4B2A-9EAC-4F518FDD749F}"/>
     <cellStyle name="Akcent 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Akcent 2 10" xfId="424" xr:uid="{3B37C19F-D21C-4CDC-A5BF-33362D4F5D97}"/>
     <cellStyle name="Akcent 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
     <cellStyle name="Akcent 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
     <cellStyle name="Akcent 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
@@ -2856,7 +4206,9 @@
     <cellStyle name="Akcent 2 6" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="Akcent 2 7" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="Akcent 2 8" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Akcent 2 9" xfId="425" xr:uid="{68A781C8-7046-43A6-BA2E-E7C502243E7D}"/>
     <cellStyle name="Akcent 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Akcent 3 10" xfId="426" xr:uid="{BE517BDD-D01E-49E7-957F-FEB5D1E8878F}"/>
     <cellStyle name="Akcent 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Akcent 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
     <cellStyle name="Akcent 3 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
@@ -2864,7 +4216,9 @@
     <cellStyle name="Akcent 3 6" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Akcent 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Akcent 3 8" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Akcent 3 9" xfId="427" xr:uid="{7B2F9EFC-42EB-4470-8969-7EF00B18C226}"/>
     <cellStyle name="Akcent 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Akcent 4 10" xfId="428" xr:uid="{6FA2FE17-F9BF-4F4E-A8C8-901986449FC8}"/>
     <cellStyle name="Akcent 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="Akcent 4 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
     <cellStyle name="Akcent 4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
@@ -2872,7 +4226,9 @@
     <cellStyle name="Akcent 4 6" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
     <cellStyle name="Akcent 4 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="Akcent 4 8" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Akcent 4 9" xfId="429" xr:uid="{7C69E046-88B3-416F-A5DF-07F14764E7DF}"/>
     <cellStyle name="Akcent 5" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Akcent 5 10" xfId="430" xr:uid="{ACF1B106-703F-4F8F-A5DE-D0ECB3295101}"/>
     <cellStyle name="Akcent 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
     <cellStyle name="Akcent 5 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
     <cellStyle name="Akcent 5 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
@@ -2880,7 +4236,9 @@
     <cellStyle name="Akcent 5 6" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
     <cellStyle name="Akcent 5 7" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
     <cellStyle name="Akcent 5 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Akcent 5 9" xfId="431" xr:uid="{03FA835B-D5BB-468D-972E-2B582AC1E4D8}"/>
     <cellStyle name="Akcent 6" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Akcent 6 10" xfId="432" xr:uid="{9CFA743E-0444-4ED8-9709-50B24D984D5B}"/>
     <cellStyle name="Akcent 6 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Akcent 6 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Akcent 6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
@@ -2888,7 +4246,26 @@
     <cellStyle name="Akcent 6 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Akcent 6 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Akcent 6 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Akcent 6 9" xfId="433" xr:uid="{E13D6E72-E6F0-4A1C-A1DC-77C9AEC4083D}"/>
+    <cellStyle name="Akzent1 2" xfId="434" xr:uid="{403A8B72-59C8-45F5-B1D6-50FCC6CA99A0}"/>
+    <cellStyle name="Akzent2 2" xfId="435" xr:uid="{631202EB-9A08-4AC9-897C-7544EC684859}"/>
+    <cellStyle name="Akzent3 2" xfId="436" xr:uid="{1D3122F7-0CF4-4202-BD77-6A4967163823}"/>
+    <cellStyle name="Akzent4 2" xfId="437" xr:uid="{5830F37C-799C-4A12-97BC-1F9F3F66C442}"/>
+    <cellStyle name="Akzent5 2" xfId="438" xr:uid="{DE174DEB-80F7-4FFE-B0D0-5006A271B5EB}"/>
+    <cellStyle name="Akzent6 2" xfId="439" xr:uid="{72B987B1-9B01-4133-B4AC-FBC0B48E0F46}"/>
+    <cellStyle name="Ausgabe 2" xfId="440" xr:uid="{EC710D2A-3B50-4213-B8A9-D2CB1D0E3FCD}"/>
+    <cellStyle name="Bad" xfId="441" xr:uid="{1205CE16-E424-4208-9D64-735DA996E4BD}"/>
+    <cellStyle name="Berechnung 2" xfId="442" xr:uid="{85980431-258B-492A-B199-1A667C948DAE}"/>
+    <cellStyle name="Calculation" xfId="443" xr:uid="{AFC11BCB-C643-4AE1-A725-6D29565E80D4}"/>
+    <cellStyle name="Check Cell" xfId="444" xr:uid="{9150347B-D362-439B-A812-54DBBC6BCBA4}"/>
+    <cellStyle name="ColLevel_" xfId="445" xr:uid="{B0A131FB-4C1C-4305-B6FD-6DE2044F8F99}"/>
+    <cellStyle name="Comma0" xfId="446" xr:uid="{0823BFD2-F3B2-4A63-BFAF-EDCAC7A15751}"/>
+    <cellStyle name="Comma0 - Style1" xfId="447" xr:uid="{70CCBCFB-FA99-454B-87FB-8557582BD38D}"/>
+    <cellStyle name="Comma0 - Style2" xfId="448" xr:uid="{810E515D-6397-4A3E-90A7-4948A39523B6}"/>
+    <cellStyle name="Comma0_Input" xfId="449" xr:uid="{CE7B5E62-8C9D-4ED6-B0A0-7264B088CBD0}"/>
+    <cellStyle name="Currency0" xfId="450" xr:uid="{B3A06E39-34A4-4250-8811-808BF13DD903}"/>
     <cellStyle name="Dane wejściowe" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Dane wejściowe 10" xfId="451" xr:uid="{8F109617-896F-4B7C-B9E6-87EBAF9EEE07}"/>
     <cellStyle name="Dane wejściowe 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
     <cellStyle name="Dane wejściowe 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="Dane wejściowe 4" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
@@ -2896,7 +4273,9 @@
     <cellStyle name="Dane wejściowe 6" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
     <cellStyle name="Dane wejściowe 7" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="Dane wejściowe 8" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Dane wejściowe 9" xfId="452" xr:uid="{C5DBB5BD-699E-4827-B098-0EACBD668D0C}"/>
     <cellStyle name="Dane wyjściowe" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Dane wyjściowe 10" xfId="453" xr:uid="{950AFE09-8F5A-4CDB-B2E4-CFE3D26591C3}"/>
     <cellStyle name="Dane wyjściowe 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="Dane wyjściowe 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="Dane wyjściowe 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
@@ -2904,7 +4283,15 @@
     <cellStyle name="Dane wyjściowe 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
     <cellStyle name="Dane wyjściowe 7" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="Dane wyjściowe 8" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Dane wyjściowe 9" xfId="454" xr:uid="{2D5A2CCC-8435-407B-8FEC-29F04CE4113F}"/>
+    <cellStyle name="Date" xfId="455" xr:uid="{43B166A9-B18B-4E55-93E7-9546A3A2811C}"/>
+    <cellStyle name="DateTime" xfId="456" xr:uid="{CC4ED2BB-B11D-4814-BEF2-E5BD5A9A8E74}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="457" xr:uid="{534E12F6-D4CB-45F1-AD87-740B1C4582B7}"/>
+    <cellStyle name="Dezimal 2" xfId="458" xr:uid="{E035D5B3-03F3-4814-A808-D0DDEF8FE2CB}"/>
+    <cellStyle name="Dezimal 3" xfId="459" xr:uid="{518319FD-D935-45D9-AFEF-EFADC84A1749}"/>
+    <cellStyle name="Dezimal_Results_Pan_EU_OLGA_NUC" xfId="460" xr:uid="{8927B27C-23AF-455E-BC2B-E29F8FF73804}"/>
     <cellStyle name="Dobre" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Dobre 10" xfId="461" xr:uid="{65827B6D-0E3C-4FBA-A064-0AE72D9E213D}"/>
     <cellStyle name="Dobre 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
     <cellStyle name="Dobre 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="Dobre 4" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
@@ -2912,8 +4299,83 @@
     <cellStyle name="Dobre 6" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Dobre 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Dobre 8" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Dobre 9" xfId="462" xr:uid="{8FEC4D01-C79B-4D21-A318-FB22160E7720}"/>
+    <cellStyle name="Eingabe 2" xfId="463" xr:uid="{44B0025C-BBE3-43BB-87D7-B7C327D931D3}"/>
+    <cellStyle name="Ergebnis 2" xfId="464" xr:uid="{8BEF438E-91DE-46F8-B1B4-62918214132B}"/>
+    <cellStyle name="Erklärender Text 2" xfId="465" xr:uid="{8048FB89-B631-445E-B072-485D827712B0}"/>
     <cellStyle name="Euro" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Euro 2" xfId="466" xr:uid="{6A06957B-F5F5-46B5-9554-34AE84C9FC45}"/>
+    <cellStyle name="Euro 2 2" xfId="467" xr:uid="{C0F6A8DC-FD46-4E2A-80CD-1C04B896276E}"/>
+    <cellStyle name="Euro 2 3" xfId="468" xr:uid="{BACDC90A-BDB4-413C-853E-908716F2B6B6}"/>
+    <cellStyle name="Euro 3" xfId="469" xr:uid="{55CF7AFD-9E02-4647-B2FA-893C64D55F4C}"/>
+    <cellStyle name="Explanatory Text" xfId="470" xr:uid="{7B226C3D-AA62-4959-815A-869AE6010C2C}"/>
+    <cellStyle name="Fixed" xfId="471" xr:uid="{C055B6D5-44B9-4541-BF4D-522771A87457}"/>
+    <cellStyle name="Fixed1 - Style1" xfId="472" xr:uid="{285D017D-F09A-488A-B056-5389005DBF50}"/>
+    <cellStyle name="Good" xfId="473" xr:uid="{722897D3-A224-44CD-AA81-E86136268094}"/>
+    <cellStyle name="Grey" xfId="474" xr:uid="{E4A51BA2-78EC-483C-BE36-CE91243ED38D}"/>
+    <cellStyle name="Gut 2" xfId="475" xr:uid="{9ACA0EDC-36FF-4D8F-A2A9-5E967B64DB5D}"/>
+    <cellStyle name="HEADER" xfId="476" xr:uid="{D6DC74F1-2051-4A38-9067-8D28A6CD8C22}"/>
+    <cellStyle name="Heading 1" xfId="477" xr:uid="{FABAA7A7-37F2-4E7F-AEA3-161D60C1249D}"/>
+    <cellStyle name="Heading 1 10" xfId="478" xr:uid="{17427420-2869-45C5-AB43-674DCACBA54A}"/>
+    <cellStyle name="Heading 1 11" xfId="479" xr:uid="{1DB0277B-D82D-4808-859A-07F57B2C17AE}"/>
+    <cellStyle name="Heading 1 12" xfId="480" xr:uid="{2CC8C889-A9C1-4DD9-A566-F514DD6F1FCA}"/>
+    <cellStyle name="Heading 1 13" xfId="481" xr:uid="{52C50282-45F9-4EF8-9A4D-EE3A314073A4}"/>
+    <cellStyle name="Heading 1 14" xfId="482" xr:uid="{0E3F843A-8035-4216-A5AE-EB5E59352C81}"/>
+    <cellStyle name="Heading 1 15" xfId="483" xr:uid="{70A499CD-9491-4E1A-B751-4AFA8BE10ADE}"/>
+    <cellStyle name="Heading 1 16" xfId="484" xr:uid="{4E0DD0F9-63C9-466C-AF3E-8679F3810652}"/>
+    <cellStyle name="Heading 1 17" xfId="485" xr:uid="{3887BACE-280D-490A-80D3-48EC45E5A99C}"/>
+    <cellStyle name="Heading 1 18" xfId="486" xr:uid="{E1360AF6-136F-4A75-BFAF-E7E08618EBC3}"/>
+    <cellStyle name="Heading 1 19" xfId="487" xr:uid="{5F3F021C-0446-4D8D-B4F6-0CBE466EAB8D}"/>
+    <cellStyle name="Heading 1 2" xfId="488" xr:uid="{AA6462E6-7D19-4572-9687-1A6675CDE74C}"/>
+    <cellStyle name="Heading 1 3" xfId="489" xr:uid="{F61623D1-3397-418D-A56E-E71EBDF533F4}"/>
+    <cellStyle name="Heading 1 4" xfId="490" xr:uid="{58BDF06B-CDC7-48B1-BB46-6A25CD503483}"/>
+    <cellStyle name="Heading 1 5" xfId="491" xr:uid="{071241BD-AA6D-45FF-B2E3-E63052447A79}"/>
+    <cellStyle name="Heading 1 6" xfId="492" xr:uid="{59F7F555-0183-4B8D-A30B-18AED36128C7}"/>
+    <cellStyle name="Heading 1 7" xfId="493" xr:uid="{BE862D14-C0BD-4CB5-8A42-29BDA96204E0}"/>
+    <cellStyle name="Heading 1 8" xfId="494" xr:uid="{3135B2D3-756D-457A-8E82-E818A9CA264A}"/>
+    <cellStyle name="Heading 1 9" xfId="495" xr:uid="{289B64D1-F3BE-4AA6-A242-786F95A506E1}"/>
+    <cellStyle name="Heading 2" xfId="496" xr:uid="{09AD54C7-FF33-48E7-8191-7E2F9D784514}"/>
+    <cellStyle name="Heading 2 10" xfId="497" xr:uid="{7AB01D65-8ED4-46D7-8E9B-731AEF6A7372}"/>
+    <cellStyle name="Heading 2 11" xfId="498" xr:uid="{1B97EC72-35B3-4B62-AE4D-2ABB3849CA4C}"/>
+    <cellStyle name="Heading 2 12" xfId="499" xr:uid="{2EF10550-209A-430C-9CA1-C2BA91899FEB}"/>
+    <cellStyle name="Heading 2 13" xfId="500" xr:uid="{32FA48DB-C0FB-4663-ACFD-6955B85ACF98}"/>
+    <cellStyle name="Heading 2 14" xfId="501" xr:uid="{52467042-D52A-41AB-BB70-AE818AA060A9}"/>
+    <cellStyle name="Heading 2 15" xfId="502" xr:uid="{F6600C0B-4CAD-4DB8-9992-59E5D6E2826E}"/>
+    <cellStyle name="Heading 2 16" xfId="503" xr:uid="{CD3BD505-603B-4F40-89C9-FEB2A7546113}"/>
+    <cellStyle name="Heading 2 17" xfId="504" xr:uid="{73B227EC-84E7-4E0F-B046-5A27DF63F3C5}"/>
+    <cellStyle name="Heading 2 18" xfId="505" xr:uid="{87E019F4-0A1C-4FFC-9D85-5110D7A22BCB}"/>
+    <cellStyle name="Heading 2 19" xfId="506" xr:uid="{862382AA-195A-4359-8D58-CF0AED6A4850}"/>
+    <cellStyle name="Heading 2 2" xfId="507" xr:uid="{89E900A9-CFF3-4F0D-BF32-1C0350816141}"/>
+    <cellStyle name="Heading 2 3" xfId="508" xr:uid="{ACB305E9-0646-4EA8-AB91-1B4630DA44A1}"/>
+    <cellStyle name="Heading 2 4" xfId="509" xr:uid="{0A3E2386-38CE-4698-B524-6A95E9999B35}"/>
+    <cellStyle name="Heading 2 5" xfId="510" xr:uid="{B956CA11-4BB1-421A-92AE-FC134CBB6722}"/>
+    <cellStyle name="Heading 2 6" xfId="511" xr:uid="{47C690C5-E4E7-46D4-BB5C-305BEDB5DAAF}"/>
+    <cellStyle name="Heading 2 7" xfId="512" xr:uid="{85B09D42-182A-47FC-A9E0-BEA125A4B757}"/>
+    <cellStyle name="Heading 2 8" xfId="513" xr:uid="{04A8312C-C018-4033-9E8A-C5EFF96654AB}"/>
+    <cellStyle name="Heading 2 9" xfId="514" xr:uid="{7159433C-D749-4CF8-85D1-31A1BBDA0429}"/>
+    <cellStyle name="Heading 3" xfId="515" xr:uid="{2FBF62B6-7137-4B68-8025-939DEAFA1926}"/>
+    <cellStyle name="Heading 4" xfId="516" xr:uid="{59BE1007-C614-4A9E-870A-59FE8863CDDB}"/>
+    <cellStyle name="Heading1" xfId="517" xr:uid="{477AC3B6-18A4-47B2-9FCF-4A431A336A69}"/>
+    <cellStyle name="Heading2" xfId="518" xr:uid="{54EF937C-32D4-4DCB-88EB-7AB14F233681}"/>
+    <cellStyle name="Headline" xfId="519" xr:uid="{5CD3B38D-D545-4117-97D7-B7213827055F}"/>
+    <cellStyle name="HIGHLIGHT" xfId="520" xr:uid="{1A55AB46-2129-4D53-AD2D-05960F9BD880}"/>
+    <cellStyle name="Hiperłącze 2" xfId="521" xr:uid="{2E382360-9DEB-4883-8F4D-DFF6D3DD50E9}"/>
+    <cellStyle name="Hiperłącze 2 2" xfId="522" xr:uid="{811DA0EE-1A08-47D2-BA26-F0649E9276C8}"/>
+    <cellStyle name="Hiperłącze 2 3" xfId="523" xr:uid="{E5D746A9-9996-4AC9-8E3E-ACC9FF71F3A2}"/>
+    <cellStyle name="Hyperlink 2" xfId="524" xr:uid="{3C04AC38-A825-4CBC-90EE-A099E3E994FE}"/>
+    <cellStyle name="Hyperlink 3" xfId="525" xr:uid="{C1DDF9BA-61C6-4460-AD1A-B0FAAA4BA141}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="526" xr:uid="{C8689288-532E-4D0E-B916-A55A88F8DFF6}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="527" xr:uid="{6FB4EEC6-5DC7-4D28-B830-523720892C5A}"/>
+    <cellStyle name="Hyperlink 4" xfId="528" xr:uid="{7641B98D-8B2A-4130-8FD9-971EFB6F1903}"/>
+    <cellStyle name="Input" xfId="529" xr:uid="{DCB2459F-DE8E-4F02-A738-8171084E9CED}"/>
+    <cellStyle name="Input [yellow]" xfId="530" xr:uid="{3C9B02A7-2018-470A-B65C-94CC2067A917}"/>
+    <cellStyle name="InputCells" xfId="531" xr:uid="{CBF5A600-FA85-44B9-BD85-D04AD5859A63}"/>
+    <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="532" xr:uid="{84776821-61B1-407D-804C-095D5FD588DC}"/>
+    <cellStyle name="Komma 2" xfId="533" xr:uid="{649BAE37-B21A-4F51-9986-5599CF0EC71D}"/>
+    <cellStyle name="Komma 3" xfId="534" xr:uid="{EF061E92-C179-4022-8A20-C1B4E396A59A}"/>
+    <cellStyle name="Komma 4" xfId="535" xr:uid="{97E7C443-250A-4AD7-9FB2-06C5BC525AAB}"/>
     <cellStyle name="Komórka połączona" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Komórka połączona 10" xfId="536" xr:uid="{6B1FC34A-5F26-4F02-B110-FC204CAFB35E}"/>
     <cellStyle name="Komórka połączona 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
     <cellStyle name="Komórka połączona 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
     <cellStyle name="Komórka połączona 4" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
@@ -2921,7 +4383,9 @@
     <cellStyle name="Komórka połączona 6" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="Komórka połączona 7" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
     <cellStyle name="Komórka połączona 8" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Komórka połączona 9" xfId="537" xr:uid="{50DEACF2-907F-442E-B118-EB592900E649}"/>
     <cellStyle name="Komórka zaznaczona" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Komórka zaznaczona 10" xfId="538" xr:uid="{EE72AF91-F7CA-411A-AF3D-158A11B86C0E}"/>
     <cellStyle name="Komórka zaznaczona 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="Komórka zaznaczona 3" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Komórka zaznaczona 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
@@ -2929,7 +4393,10 @@
     <cellStyle name="Komórka zaznaczona 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Komórka zaznaczona 7" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
     <cellStyle name="Komórka zaznaczona 8" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Komórka zaznaczona 9" xfId="539" xr:uid="{A06BE6B6-E5E5-4350-AC53-8A37BD9260B7}"/>
+    <cellStyle name="Linked Cell" xfId="540" xr:uid="{A389BC91-CAFC-409D-997F-B61941E01B2F}"/>
     <cellStyle name="Nagłówek 1" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Nagłówek 1 10" xfId="541" xr:uid="{9F62D6A1-DE8F-4BFE-9FEE-C20D70503DEF}"/>
     <cellStyle name="Nagłówek 1 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Nagłówek 1 3" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Nagłówek 1 4" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
@@ -2937,7 +4404,9 @@
     <cellStyle name="Nagłówek 1 6" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Nagłówek 1 7" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
     <cellStyle name="Nagłówek 1 8" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Nagłówek 1 9" xfId="542" xr:uid="{BF816C73-9A8E-4E70-AB0E-EE9015A5542F}"/>
     <cellStyle name="Nagłówek 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Nagłówek 2 10" xfId="543" xr:uid="{9E3D704D-E70D-4FB4-8B80-9EBE81F461B4}"/>
     <cellStyle name="Nagłówek 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
     <cellStyle name="Nagłówek 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
     <cellStyle name="Nagłówek 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
@@ -2945,7 +4414,9 @@
     <cellStyle name="Nagłówek 2 6" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
     <cellStyle name="Nagłówek 2 7" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Nagłówek 2 8" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Nagłówek 2 9" xfId="544" xr:uid="{19BCB53A-A93B-4DFC-9844-5E5881F98C8F}"/>
     <cellStyle name="Nagłówek 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Nagłówek 3 10" xfId="545" xr:uid="{3994FAD0-B6CC-4E5D-872F-6FA9F92950CF}"/>
     <cellStyle name="Nagłówek 3 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="Nagłówek 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
     <cellStyle name="Nagłówek 3 4" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
@@ -2953,7 +4424,9 @@
     <cellStyle name="Nagłówek 3 6" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="Nagłówek 3 7" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Nagłówek 3 8" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Nagłówek 3 9" xfId="546" xr:uid="{0697953B-9731-4B66-838D-E8765BDEB9C7}"/>
     <cellStyle name="Nagłówek 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Nagłówek 4 10" xfId="547" xr:uid="{50CC987D-88F2-442D-87C2-3A866D43EAFF}"/>
     <cellStyle name="Nagłówek 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="Nagłówek 4 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
     <cellStyle name="Nagłówek 4 4" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
@@ -2961,7 +4434,11 @@
     <cellStyle name="Nagłówek 4 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Nagłówek 4 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Nagłówek 4 8" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Nagłówek 4 9" xfId="548" xr:uid="{A6A046E9-3378-472B-9CF1-9924D8C8F0BB}"/>
+    <cellStyle name="Neutral" xfId="549" xr:uid="{E1E91233-2D14-4B02-BD1E-A1D17144FDC9}"/>
+    <cellStyle name="Neutral 2" xfId="550" xr:uid="{9707197B-D398-4376-AEAE-F170C1BF0DB3}"/>
     <cellStyle name="Neutralne" xfId="266" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Neutralne 10" xfId="551" xr:uid="{13858E53-905F-4609-B4EA-1885929C53E2}"/>
     <cellStyle name="Neutralne 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
     <cellStyle name="Neutralne 3" xfId="268" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
     <cellStyle name="Neutralne 4" xfId="269" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
@@ -2969,15 +4446,46 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutralne 9" xfId="552" xr:uid="{43A4FFC8-1C6F-45A8-8B7E-A9A3A4AA2E02}"/>
+    <cellStyle name="no dec" xfId="553" xr:uid="{F1E96FB0-75B4-40B0-ABD0-65905D19B749}"/>
+    <cellStyle name="Normal - Style1" xfId="554" xr:uid="{08F08850-98EB-4F08-B68C-0BA0625EEF99}"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 14" xfId="555" xr:uid="{120B2359-A791-4208-94B8-2155168DEF6A}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 20" xfId="556" xr:uid="{A870C46E-06AC-4128-99C3-9ACCC613560F}"/>
+    <cellStyle name="Normal 21" xfId="557" xr:uid="{D3E87875-E5FE-4E5E-B98E-86B296326BA4}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Normal 4" xfId="339" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
+    <cellStyle name="Normal 3 2" xfId="558" xr:uid="{F5E7D1C6-D65F-4B85-B4A6-B32E9BD82C95}"/>
+    <cellStyle name="Normal 3 3" xfId="559" xr:uid="{1950311D-481F-4760-944F-69C90CB6FF01}"/>
+    <cellStyle name="Normal 4" xfId="338" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
+    <cellStyle name="Normal 4 2" xfId="560" xr:uid="{E3309183-0E9E-4DB9-9AB5-79176FE504B0}"/>
+    <cellStyle name="Normal 5" xfId="561" xr:uid="{5BB5D93B-27EC-4F6B-AB54-8DDE78DAC761}"/>
+    <cellStyle name="Normal 5 2" xfId="562" xr:uid="{828EBCAB-4C75-4404-8201-7D8151D4DEAA}"/>
+    <cellStyle name="Normal 6" xfId="563" xr:uid="{1458C9B2-9AD3-48DF-A1B2-D46C78C62188}"/>
+    <cellStyle name="Normal 6 2" xfId="564" xr:uid="{3D12D2C4-F1D8-4A6D-8E50-199AED4E567A}"/>
+    <cellStyle name="Normal 7" xfId="565" xr:uid="{54AF6404-02F8-4174-ABC8-779F7B746225}"/>
+    <cellStyle name="Normal 7 2" xfId="566" xr:uid="{65477E1B-4954-4B4A-ABA7-E9FB4B4A0A6E}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="567" xr:uid="{4B7A0834-C9EA-46B5-8F24-5B79E9AFF988}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="568" xr:uid="{9E444E51-3887-49A9-B395-47210429831A}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="569" xr:uid="{BACDDBCE-A5F0-42ED-99B0-FA4A0B4FB0F3}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="570" xr:uid="{518D1AB2-264B-4EEB-8112-0415DB7576CC}"/>
+    <cellStyle name="Normalny 10 2" xfId="571" xr:uid="{C69AE297-061E-4F51-99CA-2D31FC6029B8}"/>
+    <cellStyle name="Normalny 11" xfId="572" xr:uid="{9ECE0CBC-9CD5-49A0-A4CB-AD22011B3C77}"/>
+    <cellStyle name="Normalny 11 2" xfId="573" xr:uid="{69FAC1C9-D5D3-448D-86EC-593A3787776B}"/>
+    <cellStyle name="Normalny 11 3" xfId="574" xr:uid="{2DABCD42-B923-4CFE-B77B-4CC5CC5D0411}"/>
+    <cellStyle name="Normalny 12" xfId="575" xr:uid="{5AC4F3F1-599B-48E2-9383-2D9FA5B6AC58}"/>
+    <cellStyle name="Normalny 13" xfId="576" xr:uid="{AACF88CA-BBDD-4724-9DB9-965E00E46349}"/>
+    <cellStyle name="Normalny 13 2" xfId="577" xr:uid="{DF00CA32-06F4-46A2-8319-CF4D458961A1}"/>
+    <cellStyle name="Normalny 13 3" xfId="578" xr:uid="{74271FFB-7ECD-403F-BE10-10176003A368}"/>
+    <cellStyle name="Normalny 14" xfId="579" xr:uid="{77E55615-CA6F-450A-B370-A33D04161846}"/>
+    <cellStyle name="Normalny 15" xfId="580" xr:uid="{0AE5D62E-7C6A-483C-B215-BEF5C909967E}"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normalny 2 2" xfId="582" xr:uid="{824E899A-A9DF-4542-B736-D1CD16EB3F3B}"/>
+    <cellStyle name="Normalny 2 3" xfId="581" xr:uid="{41B77F0B-189E-4541-AD40-6DF2A13096A0}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
     <cellStyle name="Normalny 5" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
@@ -2985,7 +4493,10 @@
     <cellStyle name="Normalny 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Normalny 8" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Normalny 9" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Note" xfId="583" xr:uid="{11AD4605-48C8-4310-A061-BAAFB05F3393}"/>
+    <cellStyle name="Notiz 2" xfId="584" xr:uid="{4DD7BBC6-BBC5-4FDD-86AF-4B7235F4C60A}"/>
     <cellStyle name="Obliczenia" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Obliczenia 10" xfId="585" xr:uid="{566D1626-BE05-4B40-9142-588EC306CAC7}"/>
     <cellStyle name="Obliczenia 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
     <cellStyle name="Obliczenia 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
     <cellStyle name="Obliczenia 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
@@ -2993,49 +4504,229 @@
     <cellStyle name="Obliczenia 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
     <cellStyle name="Obliczenia 7" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
     <cellStyle name="Obliczenia 8" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Suma" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tytuł" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Uwaga" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="325" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="326" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="327" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="328" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="329" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Złe" xfId="330" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="332" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="333" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="334" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="335" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="336" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="337" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="已访问的超链接" xfId="338" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Obliczenia 9" xfId="586" xr:uid="{4DA3D117-D28F-4B94-B094-44830ABE85BE}"/>
+    <cellStyle name="Output" xfId="587" xr:uid="{447FF3C3-8F8E-4889-8873-20621C02B8C3}"/>
+    <cellStyle name="Percent [2]" xfId="588" xr:uid="{402782D9-C969-4080-9944-60BAB5B53B75}"/>
+    <cellStyle name="Procentowy 2" xfId="589" xr:uid="{053E0A59-8F19-4B5D-A77A-ECE93DE46E59}"/>
+    <cellStyle name="Procentowy 2 2" xfId="590" xr:uid="{AB3FD3A8-E3CC-404E-BB29-97A4FF731867}"/>
+    <cellStyle name="Procentowy 2 3" xfId="591" xr:uid="{B7470D9E-B00E-4DBC-94AF-1023A4DBAF5A}"/>
+    <cellStyle name="Procentowy 3" xfId="592" xr:uid="{04687145-9D1D-439B-995F-944F3A3D621E}"/>
+    <cellStyle name="Prozent 2" xfId="593" xr:uid="{3A6E351B-66C4-4F3F-B066-F0A12F77E90E}"/>
+    <cellStyle name="Prozent 2 2" xfId="594" xr:uid="{353E522C-761B-4255-A794-ADB9BDE6828C}"/>
+    <cellStyle name="Prozent 3" xfId="595" xr:uid="{7C47D55E-9A65-4511-9ABA-CAD0A61CE799}"/>
+    <cellStyle name="Prozent 4" xfId="596" xr:uid="{FDFF8195-98C5-4772-B72A-693053362F0A}"/>
+    <cellStyle name="Prozent 5" xfId="597" xr:uid="{547D3D76-EE9D-4F73-939A-84F686E72209}"/>
+    <cellStyle name="Prozent 5 2" xfId="598" xr:uid="{F0C96C6D-2E89-4695-822C-117083562D0A}"/>
+    <cellStyle name="Prozent 5 3" xfId="599" xr:uid="{AB517BAD-70E2-49A6-B90B-0CD60DF031A8}"/>
+    <cellStyle name="Prozent 5 4" xfId="600" xr:uid="{D109B93F-B7BA-42E8-99FF-1C19FEA141DB}"/>
+    <cellStyle name="Prozent 6" xfId="601" xr:uid="{9FB4170E-B872-4CDD-9027-89B298245C89}"/>
+    <cellStyle name="Prozent 6 2" xfId="602" xr:uid="{0957B2F2-59E9-46C9-BCF4-67AFD7DD6304}"/>
+    <cellStyle name="Prozent 6 3" xfId="603" xr:uid="{2458EFD8-FDD8-40AC-A6D7-13A24448C87F}"/>
+    <cellStyle name="Prozent 6 4" xfId="604" xr:uid="{2BE34395-CF26-4E31-B0C5-EF9ED51BBF10}"/>
+    <cellStyle name="Prozent 7" xfId="605" xr:uid="{B5F32963-2891-4BC2-AC0F-4AF218DE0988}"/>
+    <cellStyle name="Prozent 8" xfId="606" xr:uid="{EC2411C4-2EE6-49D8-AC2C-52E0627DCB7E}"/>
+    <cellStyle name="Prozent 8 2" xfId="607" xr:uid="{6F5C25B2-202E-40FE-B5C4-AA58E49A99D2}"/>
+    <cellStyle name="RangeName" xfId="608" xr:uid="{D2C38720-1149-4620-ABEA-19FAFCA4971F}"/>
+    <cellStyle name="SAPBEXaggData" xfId="609" xr:uid="{3B67CA5E-9130-4ABA-A8E7-FACEE00F9AA3}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="610" xr:uid="{57673495-514C-441F-9F4D-1108BDA20EC9}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="611" xr:uid="{0AC08C42-BB24-43C5-B432-7E7C03A45074}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="612" xr:uid="{2599A272-F651-43C8-B0D2-DDEF02C774E9}"/>
+    <cellStyle name="SAPBEXchaText" xfId="613" xr:uid="{38D945D5-D480-4BCC-8E58-061BE390602B}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="614" xr:uid="{83D19982-C6B5-4BC3-A129-45288AF970A6}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="615" xr:uid="{49C5B956-94C7-4D1C-AE42-C41644D7BBBF}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="616" xr:uid="{AC5EC114-6C86-412E-8234-6008A3629274}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="617" xr:uid="{BC18BB91-F1A5-45A8-AC6D-92EE27ACB0F6}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="618" xr:uid="{913E9DF0-2DDF-4E3B-A1A2-E202DB6E1144}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="619" xr:uid="{0B665A35-AB25-4EF9-939C-F76C5F7AC622}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="620" xr:uid="{8733C0D4-34B0-48D0-BFCB-AD5B5EE76C86}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="621" xr:uid="{62B3AE1B-FB9F-47A8-89F5-692DA42E3F7B}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="622" xr:uid="{9B28AD02-F72A-435E-854F-FC9EE64D1603}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="623" xr:uid="{5E12FB27-5601-4752-B5C6-A8D527724D82}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="624" xr:uid="{F96F56A2-2F13-461B-8A83-E4B59CCC4FC5}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="625" xr:uid="{1FF906D6-5866-4501-A10B-FE01DE7C86F7}"/>
+    <cellStyle name="SAPBEXformats" xfId="626" xr:uid="{4F6CCE66-351A-47D5-854D-90D8A3384623}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="627" xr:uid="{8383114D-9482-4FB2-B5FE-584C0E6265B2}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="628" xr:uid="{1513EB8B-A348-4CC7-86D6-63626CFC810C}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="629" xr:uid="{054D4F5B-8684-44E2-846A-9691D4ED88FF}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="630" xr:uid="{AA6E766F-808F-436C-AABC-805CC76E55BD}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="631" xr:uid="{B0CBEF7D-120C-4E90-A156-254589DE1293}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="632" xr:uid="{CDCEF3D4-09AB-463F-B2C2-2C585C79DBD3}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="633" xr:uid="{D43F4682-FD29-4AA9-AE18-07EA625EB315}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="634" xr:uid="{F921EC10-57BD-45FB-B548-E9279D6092ED}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="635" xr:uid="{0D81C9CA-8088-459D-A1B6-853A1A86032A}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="636" xr:uid="{2197D5F2-57F2-44C0-AEF4-B38001647C56}"/>
+    <cellStyle name="SAPBEXresData" xfId="637" xr:uid="{E8DC9F11-EE15-4726-826D-4755D974F137}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="638" xr:uid="{3974E3CA-F92C-4460-9001-DFC7D191DF5D}"/>
+    <cellStyle name="SAPBEXresItem" xfId="639" xr:uid="{4AC2996A-3E84-4229-AD9A-BB7FCB790245}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="640" xr:uid="{790CFA8B-CA8B-4C01-8383-7C8692BFCC92}"/>
+    <cellStyle name="SAPBEXstdData" xfId="641" xr:uid="{601DE8BD-C9E7-41DE-8138-1D2251559797}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="642" xr:uid="{812FB30A-2381-4460-AC64-3E5054784639}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="643" xr:uid="{1894E3E1-A5FC-42CF-9767-BFA3A5BB6CB3}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="644" xr:uid="{46DE7CE1-E732-43A3-9119-630D543FE33C}"/>
+    <cellStyle name="SAPBEXtitle" xfId="645" xr:uid="{E8CBA2F3-D0D5-4B52-92A3-375851127DBC}"/>
+    <cellStyle name="SAPBEXundefined" xfId="646" xr:uid="{AB03CA7A-85C7-4E01-872B-79C9512E43AD}"/>
+    <cellStyle name="Schlecht 2" xfId="647" xr:uid="{F00FED4E-DD51-4ADC-9F04-EE2786E6F4AF}"/>
+    <cellStyle name="Shade" xfId="648" xr:uid="{487E5C8C-FE73-479A-9256-838889BE991F}"/>
+    <cellStyle name="Standaard_Blad1" xfId="649" xr:uid="{5562D4AA-E814-4044-93D7-0EF62498AFA9}"/>
+    <cellStyle name="Standard 10" xfId="650" xr:uid="{77019F4A-11B2-4991-9A19-558845144F43}"/>
+    <cellStyle name="Standard 11" xfId="651" xr:uid="{013E3285-1A4A-4052-80C3-862E1BA64C69}"/>
+    <cellStyle name="Standard 11 2" xfId="652" xr:uid="{F5E51A9A-229D-490A-96F7-E7D273A25008}"/>
+    <cellStyle name="Standard 11 3" xfId="653" xr:uid="{F0D36B24-91DF-4F51-963A-05FAFAC490D7}"/>
+    <cellStyle name="Standard 11 4" xfId="654" xr:uid="{18F47343-16B1-495A-BABE-4F0874E03137}"/>
+    <cellStyle name="Standard 12" xfId="655" xr:uid="{6B86BC8F-C7AF-459A-9F32-07034EAA026A}"/>
+    <cellStyle name="Standard 13" xfId="656" xr:uid="{AB9EBF45-7564-46C3-9912-103F1204A863}"/>
+    <cellStyle name="Standard 2" xfId="657" xr:uid="{59A32A66-92F5-4C75-ABE9-6E18DDE7C85A}"/>
+    <cellStyle name="Standard 2 2" xfId="658" xr:uid="{2ABAD0BE-DDEF-4B10-ADDB-6DF53C46AA28}"/>
+    <cellStyle name="Standard 2 3" xfId="659" xr:uid="{F77F175D-9601-474B-8C54-B44BC5A37974}"/>
+    <cellStyle name="Standard 2 3 2" xfId="660" xr:uid="{A87E858F-17D5-43DE-8E28-2CA06A5348A7}"/>
+    <cellStyle name="Standard 2 3 3" xfId="661" xr:uid="{17A8C5BB-D6CE-4931-83E8-44DD17792DA3}"/>
+    <cellStyle name="Standard 2 4" xfId="662" xr:uid="{C2E82D89-25C6-457C-A137-56E2B718DCC0}"/>
+    <cellStyle name="Standard 2 4 2" xfId="663" xr:uid="{F4BBD02C-352B-4CE8-83AE-1E132311E7ED}"/>
+    <cellStyle name="Standard 2 4 3" xfId="664" xr:uid="{7F396EFE-D497-4EE5-9CF7-D9C71B3522C7}"/>
+    <cellStyle name="Standard 2 5" xfId="665" xr:uid="{F870AC46-D1A1-4B2B-B69D-8A9A91B9E5B6}"/>
+    <cellStyle name="Standard 3" xfId="666" xr:uid="{A7C958C7-404D-419C-A2E9-B356A8CCD628}"/>
+    <cellStyle name="Standard 3 2" xfId="667" xr:uid="{C953E115-A7C1-45F1-8C6C-3039262E594E}"/>
+    <cellStyle name="Standard 4" xfId="668" xr:uid="{8AD7F334-3C11-4FE2-BAED-3B3E7D0FACF9}"/>
+    <cellStyle name="Standard 4 2" xfId="669" xr:uid="{56CCE90A-5A7B-44B8-A51C-95C4F6AA41E0}"/>
+    <cellStyle name="Standard 5" xfId="670" xr:uid="{B01F1C79-39E5-4B9D-BCF1-A6D656BC2B12}"/>
+    <cellStyle name="Standard 5 2" xfId="671" xr:uid="{BF215E0D-6ACF-4906-B0F3-1B295CD7595B}"/>
+    <cellStyle name="Standard 5 2 2" xfId="672" xr:uid="{93D4E54F-008D-4B35-AD69-BC273368C3C0}"/>
+    <cellStyle name="Standard 5 2 2 2" xfId="673" xr:uid="{CB4A1CAD-D69A-4225-B452-8A38C417E558}"/>
+    <cellStyle name="Standard 5 2 2 3" xfId="674" xr:uid="{4E2557AA-50B7-41FA-AE93-F34C7253909C}"/>
+    <cellStyle name="Standard 5 2 3" xfId="675" xr:uid="{905A8573-78EB-43CD-9868-9549D6C8A8E8}"/>
+    <cellStyle name="Standard 5 2 3 2" xfId="676" xr:uid="{407F5B47-F8BE-4A5F-91B9-26A070A54502}"/>
+    <cellStyle name="Standard 5 2 3 3" xfId="677" xr:uid="{D5956C0E-9E28-4923-A3F7-8B9356700649}"/>
+    <cellStyle name="Standard 5 2 4" xfId="678" xr:uid="{93CBCC5D-9EC8-41CA-A94A-9AD88B2F6219}"/>
+    <cellStyle name="Standard 5 2 5" xfId="679" xr:uid="{20FA95E6-CD2E-4670-8EF5-0CC2DF7E36EF}"/>
+    <cellStyle name="Standard 5 2_ELC_Processes" xfId="680" xr:uid="{6BA6A629-4391-4774-8584-C6C91ABDDCD9}"/>
+    <cellStyle name="Standard 5 3" xfId="681" xr:uid="{CE0C1863-DBB3-4B8A-BBF7-C681EA9D1D1C}"/>
+    <cellStyle name="Standard 5 3 2" xfId="682" xr:uid="{4CB3C2D7-5AF2-44D0-AE72-237706780B32}"/>
+    <cellStyle name="Standard 5 3 3" xfId="683" xr:uid="{9683881C-28F1-4DE8-B352-6FD950B65689}"/>
+    <cellStyle name="Standard 5 4" xfId="684" xr:uid="{A4EAC1CD-05A5-4C53-ACF3-1A26AA6D2FDD}"/>
+    <cellStyle name="Standard 5 4 2" xfId="685" xr:uid="{87208237-B6D9-49CE-9E2E-2AC46C0DB479}"/>
+    <cellStyle name="Standard 5 4 3" xfId="686" xr:uid="{E15E0372-6B35-43C3-85C0-F6BF5AA24FAB}"/>
+    <cellStyle name="Standard 5 5" xfId="687" xr:uid="{C53AC12B-5EDE-4E89-879B-54A8ABF7D8D5}"/>
+    <cellStyle name="Standard 5 5 2" xfId="688" xr:uid="{CB714DE9-4E14-49B3-B8C4-C36E35713FBB}"/>
+    <cellStyle name="Standard 5 5 3" xfId="689" xr:uid="{E6DF030A-E934-437E-93E4-2131A206E53C}"/>
+    <cellStyle name="Standard 5 6" xfId="690" xr:uid="{C5E12437-747C-49E8-AAE9-71D914D41B94}"/>
+    <cellStyle name="Standard 5 7" xfId="691" xr:uid="{D2F32B6D-65D1-4793-A612-52A65FDED177}"/>
+    <cellStyle name="Standard 5_ELC_Processes" xfId="692" xr:uid="{DC8AE6F4-540C-4C40-B62F-2A889A182D17}"/>
+    <cellStyle name="Standard 6" xfId="693" xr:uid="{8C74AD9C-1E3B-41AE-BAF6-96121D5DA697}"/>
+    <cellStyle name="Standard 6 2" xfId="694" xr:uid="{5EFDC848-AAE4-4856-BE06-8BC8DB364CD4}"/>
+    <cellStyle name="Standard 7" xfId="695" xr:uid="{84759398-3676-4780-AD3C-8AEFC8FD80C3}"/>
+    <cellStyle name="Standard 8" xfId="696" xr:uid="{EE9D4AF6-6B61-408A-B288-4DC73D506695}"/>
+    <cellStyle name="Standard 8 2" xfId="697" xr:uid="{F0AC2267-1FF0-4414-88F2-1F87360C2D8A}"/>
+    <cellStyle name="Standard 8 3" xfId="698" xr:uid="{2050D6DE-2B6C-451E-8FC3-E33B31F3D924}"/>
+    <cellStyle name="Standard 9" xfId="699" xr:uid="{D8931698-CAAE-4C62-A6DD-9B49EED822C1}"/>
+    <cellStyle name="Standard 9 2" xfId="700" xr:uid="{D7B5CB96-C7F1-496C-A665-118D01181251}"/>
+    <cellStyle name="Standard 9 3" xfId="701" xr:uid="{A03F534C-40D0-4B8B-BA70-8FB324F18E97}"/>
+    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="702" xr:uid="{24D8EA79-0FC0-4E30-84E6-65955C262F7A}"/>
+    <cellStyle name="Style 21" xfId="703" xr:uid="{A0CF830C-6F6E-465A-8BFA-3CA6420B4793}"/>
+    <cellStyle name="Style 22" xfId="704" xr:uid="{E7886610-7F74-40E0-9979-8C4E2556E418}"/>
+    <cellStyle name="Style 23" xfId="705" xr:uid="{B1110DA8-18FB-4363-82A2-279E0F62AEE6}"/>
+    <cellStyle name="Style 24" xfId="706" xr:uid="{E63BD618-27D5-40C8-8263-8C2F5500F737}"/>
+    <cellStyle name="Style 25" xfId="707" xr:uid="{49335FD0-68AC-4919-9112-1429308635D7}"/>
+    <cellStyle name="Style 26" xfId="708" xr:uid="{E74F8472-48B5-4D2F-AFB8-200284C3E8C8}"/>
+    <cellStyle name="Style 27" xfId="709" xr:uid="{C72C33C5-A498-437A-8E1E-08C68A03464A}"/>
+    <cellStyle name="Style 28" xfId="710" xr:uid="{0BA57490-3F2E-43C1-92BD-99274CC19A80}"/>
+    <cellStyle name="Style 29" xfId="711" xr:uid="{BF385020-882E-4162-B9AD-40947052D8EC}"/>
+    <cellStyle name="Style 30" xfId="712" xr:uid="{BE5E4553-9C49-4E94-A4F7-8F18C3E85767}"/>
+    <cellStyle name="Style 31" xfId="713" xr:uid="{88B0F43A-195F-4537-B555-3971D3324D1C}"/>
+    <cellStyle name="Style 32" xfId="714" xr:uid="{7C4AFE83-C6D5-42F9-96A7-61C5A70BA2FC}"/>
+    <cellStyle name="Style 33" xfId="715" xr:uid="{69DCD2C0-13CE-4F73-97D6-83C87F9B58F0}"/>
+    <cellStyle name="Style 34" xfId="716" xr:uid="{15D1498C-662F-466C-A620-A14B7437F318}"/>
+    <cellStyle name="Style 35" xfId="717" xr:uid="{BF0E7955-63A2-4462-9A91-DC4F10506ECF}"/>
+    <cellStyle name="Suma" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Suma 10" xfId="718" xr:uid="{7900BBBA-9989-4386-B1D3-F8166497E884}"/>
+    <cellStyle name="Suma 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Suma 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Suma 4" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Suma 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Suma 6" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Suma 7" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Suma 8" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Suma 9" xfId="719" xr:uid="{91E581E9-E484-42FD-9C65-D0665BB0BE4E}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Tekst objaśnienia 10" xfId="720" xr:uid="{DA25594D-179F-4F4E-AB60-667FFB61B4B3}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Tekst objaśnienia 9" xfId="721" xr:uid="{A471691E-6CCC-4FBA-A8A8-17E55F08E0D1}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10" xfId="722" xr:uid="{F4085400-B388-437E-B807-26FDAD2B6B13}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9" xfId="723" xr:uid="{F3AC9445-F3EE-49DC-AF7E-420B7343759D}"/>
+    <cellStyle name="Title" xfId="724" xr:uid="{D05CA54D-2CD5-4B59-9BEF-CBE9CB958258}"/>
+    <cellStyle name="Total" xfId="725" xr:uid="{7D3E648A-FED0-446E-9340-DF6E7E7058D1}"/>
+    <cellStyle name="Total 10" xfId="726" xr:uid="{33E749C2-0E79-4C69-AE70-1B9069995241}"/>
+    <cellStyle name="Total 11" xfId="727" xr:uid="{7E9A9EBB-2D77-4176-92F5-F10BCF3AC871}"/>
+    <cellStyle name="Total 12" xfId="728" xr:uid="{C59DDF61-B5FC-4FF7-87D9-DFBF947D2550}"/>
+    <cellStyle name="Total 13" xfId="729" xr:uid="{AF47AAED-83B8-4660-8379-1CEB8A5984FD}"/>
+    <cellStyle name="Total 14" xfId="730" xr:uid="{025F3B02-AC77-4939-AB99-D513DB49A4BD}"/>
+    <cellStyle name="Total 15" xfId="731" xr:uid="{CA2EE74B-DF31-4124-9141-927E7FE3CA0B}"/>
+    <cellStyle name="Total 16" xfId="732" xr:uid="{961072F2-B6EE-403D-9AA2-CC046F5EBA68}"/>
+    <cellStyle name="Total 17" xfId="733" xr:uid="{50CF0985-AC23-452C-9F24-8BDD863D1A81}"/>
+    <cellStyle name="Total 18" xfId="734" xr:uid="{44880F41-8CFE-45D2-9CBA-3DDC04414E0B}"/>
+    <cellStyle name="Total 19" xfId="735" xr:uid="{30763BD9-79A1-482C-BDE9-F5F44D8B6BA6}"/>
+    <cellStyle name="Total 2" xfId="736" xr:uid="{21933AF1-FC0C-4F9F-8F5A-0C38068B7135}"/>
+    <cellStyle name="Total 3" xfId="737" xr:uid="{47ADC561-758D-4C64-9944-3562C557991F}"/>
+    <cellStyle name="Total 4" xfId="738" xr:uid="{3A38942D-0FCE-4CCF-983A-A6A9AA47BE8F}"/>
+    <cellStyle name="Total 5" xfId="739" xr:uid="{39502C7A-2DA6-4751-8F1B-B6111AF0F009}"/>
+    <cellStyle name="Total 6" xfId="740" xr:uid="{1EB697A1-2D51-405A-BC32-ABA76117155D}"/>
+    <cellStyle name="Total 7" xfId="741" xr:uid="{59FA5216-ADD7-4C4D-AA92-41035D9AF20B}"/>
+    <cellStyle name="Total 8" xfId="742" xr:uid="{AB0C1981-C349-446B-8BFF-258AFED9234A}"/>
+    <cellStyle name="Total 9" xfId="743" xr:uid="{E47009B5-A693-458B-9736-627785B87F4C}"/>
+    <cellStyle name="Tytuł" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Tytuł 2" xfId="744" xr:uid="{19159FC0-1601-442C-8644-5ADB31397A5B}"/>
+    <cellStyle name="Tytuł 3" xfId="745" xr:uid="{EB1929A3-3DC1-4688-B9B9-515668432B37}"/>
+    <cellStyle name="Überschrift 1 2" xfId="746" xr:uid="{27A51AEC-2ACB-4CD4-BE56-784C434AE37E}"/>
+    <cellStyle name="Überschrift 2 2" xfId="747" xr:uid="{017CAB1D-D46D-4F23-9A05-C0CDCEA636F9}"/>
+    <cellStyle name="Überschrift 3 2" xfId="748" xr:uid="{A57E6D64-5B0F-4245-B67F-115E0C5EBF53}"/>
+    <cellStyle name="Überschrift 4 2" xfId="749" xr:uid="{30100B77-B855-490D-AE76-92B3B4346801}"/>
+    <cellStyle name="Überschrift 5" xfId="750" xr:uid="{0D807954-7DC5-462F-873B-467E3D8AD16D}"/>
+    <cellStyle name="Unprot" xfId="751" xr:uid="{BD821218-E25E-49FC-B558-2D55570A6B4C}"/>
+    <cellStyle name="Unprot$" xfId="752" xr:uid="{4FF959F4-8DEA-4184-80ED-535D88D18BD9}"/>
+    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="753" xr:uid="{AF32BB18-8E9E-43A0-8E55-50C591140CEA}"/>
+    <cellStyle name="Unprotect" xfId="754" xr:uid="{04FEA184-9BE5-4CC7-9F2B-0D3D3D672674}"/>
+    <cellStyle name="Uwaga" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Uwaga 10" xfId="755" xr:uid="{7585263E-FA18-4EDE-9CB5-85E4307DD2BD}"/>
+    <cellStyle name="Uwaga 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Uwaga 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Uwaga 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Uwaga 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Uwaga 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Uwaga 7" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Uwaga 8" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Uwaga 9" xfId="756" xr:uid="{81B4482F-411C-47BE-BECB-739F4DD300AE}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="757" xr:uid="{CBCEA660-5234-4656-988A-A516018B4D83}"/>
+    <cellStyle name="Währung 2" xfId="758" xr:uid="{EFD7F0B6-18E8-465F-A2BD-A40F2B1F7342}"/>
+    <cellStyle name="Währung 2 2" xfId="759" xr:uid="{89778395-86B6-47BB-AC3E-33494ACA44B4}"/>
+    <cellStyle name="Warnender Text 2" xfId="760" xr:uid="{229236F8-D0D8-4268-80D1-AE9913075DD6}"/>
+    <cellStyle name="Warning Text" xfId="761" xr:uid="{5666C769-346C-46E9-A2F1-7A57036CFB34}"/>
+    <cellStyle name="X10_Figs 21 dec" xfId="762" xr:uid="{538A0C4C-C4D5-47D9-A25F-2FCC0A2B5076}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="763" xr:uid="{A2758924-6277-42E2-882B-10A1D3D10D35}"/>
+    <cellStyle name="Złe" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Złe 10" xfId="764" xr:uid="{8A42077C-233F-4124-8E93-14666B176096}"/>
+    <cellStyle name="Złe 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Złe 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Złe 4" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Złe 5" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Złe 6" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Złe 7" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Złe 8" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Złe 9" xfId="765" xr:uid="{38CC17F7-DB16-4739-BAC9-B0C3B437DC99}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="766" xr:uid="{146AFA9F-4E59-4587-B502-8D794B232472}"/>
+    <cellStyle name="已访问的超链接" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3056,7 +4747,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3535,267 +5226,288 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" spans="1:11" ht="18">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
-        <v>102</v>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="135" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="135"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="135"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="135"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="135"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="135"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="135"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="135"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="135"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="134"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="96" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="97" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="87" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="98" t="s">
+      <c r="C19" s="87" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="97" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="89" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="89" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3814,277 +5526,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
+    <col min="6" max="7" width="10" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1">
+      <c r="B6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="I6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="J6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="49" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="E7" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="F7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="H7" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="77"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>62</v>
+      <c r="B18" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>63</v>
+      <c r="B19" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>110</v>
+      <c r="B20" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="54" t="s">
+      <c r="B21" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="97" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="54" t="s">
+      <c r="B22" s="97" t="s">
         <v>70</v>
       </c>
+      <c r="C22" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>69</v>
+      <c r="B23" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>68</v>
+      <c r="B24" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4100,8 +5883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4116,225 +5899,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="D4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="A4" s="1"/>
+      <c r="D4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="str">
-        <f>SEC_Processes!D8</f>
+      <c r="B8" s="11" t="str">
+        <f>SEC_Processes!D10</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
-      <c r="C8" s="15" t="str">
-        <f>SEC_Processes!E8</f>
+      <c r="C8" s="11" t="str">
+        <f>SEC_Processes!E10</f>
         <v>Brown Coal Mine</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="14" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="16" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>MIN_EX_WIND_ON</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>SEC_Processes!E11</f>
+        <v>Wind Mine</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E9" s="122">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="11" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>MIN_EX_PV</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>PV</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV</v>
+      </c>
+      <c r="E10" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4343,200 +6148,311 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="E4" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="38.25">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="114" t="s">
+      <c r="F6" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="25.5">
+      <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="26.25" thickBot="1">
-      <c r="B7" s="112" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="115" t="s">
-        <v>126</v>
+      <c r="I7" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="110" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="62" t="str">
+      <c r="C8" s="110" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="D8" s="111" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="85" t="str">
+      <c r="E8" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="112">
         <v>6.5</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="112">
         <v>0.3</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="113">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="113">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="114">
         <v>1</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="113">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="113"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="110" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>ELE_EX_PV</v>
+      </c>
+      <c r="C9" s="110" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Photovoltaic Farm</v>
+      </c>
+      <c r="D9" s="111" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV</v>
+      </c>
+      <c r="E9" s="111" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="112">
+        <v>4</v>
+      </c>
+      <c r="G9" s="112">
+        <v>1</v>
+      </c>
+      <c r="H9" s="113">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="113">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J9" s="114">
+        <v>1</v>
+      </c>
+      <c r="K9" s="113"/>
+    </row>
+    <row r="10" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B10" s="115" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C10" s="116" t="str">
+        <f>SEC_Processes!E8</f>
+        <v>Wind Turbine Onshore</v>
+      </c>
+      <c r="D10" s="116" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E10" s="123" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F10" s="117">
+        <v>1.345</v>
+      </c>
+      <c r="G10" s="117">
+        <v>1</v>
+      </c>
+      <c r="H10" s="118">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I10" s="118">
+        <v>0.33</v>
+      </c>
+      <c r="J10" s="119">
+        <v>1</v>
+      </c>
+      <c r="K10" s="121"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="113"/>
+      <c r="E15" s="120"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="120"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="58">
+        <f>F10*H10</f>
+        <v>42.41592</v>
+      </c>
+      <c r="F19" s="58">
+        <f>F9*H9</f>
+        <v>126.14400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="58">
+        <f>E19*I10</f>
+        <v>13.997253600000001</v>
+      </c>
+      <c r="F20" s="58">
+        <f>F19*I9</f>
+        <v>69.379200000000012</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="58">
+        <f>E28/G8</f>
+        <v>333.33333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="E30" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="E31" s="58">
+        <f>E29+E30</f>
+        <v>334.33333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,196 +6463,261 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="E4" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="38.25">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>95</v>
+      <c r="F6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="87"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="113"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="60" t="s">
-        <v>97</v>
+      <c r="B15" s="107" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="94">
+      <c r="B16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="53">
         <v>2020</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="53">
         <v>2021</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="54">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B17" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="62" t="str">
+    <row r="17" spans="2:7" ht="25.5">
+      <c r="B17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="110" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="111">
         <v>200</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="G18" s="58">
+        <f>+C18/PP!G8</f>
+        <v>666.66666666666674</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="107"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="2:7" ht="13.5" thickBot="1">
+      <c r="B25" s="24"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="131"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="130"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="129"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="130"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="129"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="130"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="129"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="130"/>
+    </row>
+    <row r="33" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="128"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="D38" s="127">
+        <f>SUM(D26:D33)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4762,96 +6743,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="H5" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>78</v>
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4868,8 +6849,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -4921,8 +6902,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5023,21 +7004,28 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Ada\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Oss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B85050-E9F0-400A-AC13-86EC419A4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8A378-B5AD-4ACC-B2AA-D3448BD8F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5529,7 +5529,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6466,7 +6466,7 @@
   <dimension ref="B2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D33"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6647,8 +6647,14 @@
       <c r="C18" s="111">
         <v>200</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
+      <c r="D18" s="111">
+        <f>C18*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E18" s="111">
+        <f>D18*1.1</f>
+        <v>242.00000000000006</v>
+      </c>
       <c r="G18" s="58">
         <f>+C18/PP!G8</f>
         <v>666.66666666666674</v>
@@ -6843,9 +6849,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6993,19 +7002,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7029,9 +7034,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Oss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Gucwa\VT_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8A378-B5AD-4ACC-B2AA-D3448BD8F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8D149-805F-4B73-96F6-B6318C52C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1196,93 +1196,61 @@
     <t>Emission Factor</t>
   </si>
   <si>
+    <t>Wind Mine</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
     <t>MIN_EX_WIND_ON</t>
   </si>
   <si>
-    <t>Wind Mine</t>
-  </si>
-  <si>
-    <t>WIND_ON</t>
-  </si>
-  <si>
-    <t>Wind Onshore</t>
-  </si>
-  <si>
     <t>ELE_EX_WIND_TURBINE</t>
   </si>
   <si>
     <t>Wind Turbine Onshore</t>
   </si>
   <si>
-    <t>Maximum output</t>
-  </si>
-  <si>
-    <t>Limited output</t>
-  </si>
-  <si>
-    <t>Coal Price</t>
+    <t>Coal price</t>
   </si>
   <si>
     <t>Fuel cost</t>
   </si>
   <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>PV Instalation</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV</t>
+  </si>
+  <si>
+    <t>PV Mine</t>
+  </si>
+  <si>
+    <t>PV_ELE</t>
+  </si>
+  <si>
     <t>PV</t>
-  </si>
-  <si>
-    <t>MIN_EX_PV</t>
-  </si>
-  <si>
-    <t>PJa</t>
-  </si>
-  <si>
-    <t>ELE_EX_PV</t>
-  </si>
-  <si>
-    <t>Photovoltaic Farm</t>
-  </si>
-  <si>
-    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="21">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0."/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="178" formatCode="#.00"/>
-    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="181" formatCode="yyyy"/>
-    <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="94">
+  <fonts count="60">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1666,208 +1634,8 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial CE"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Helv"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="BERNHARD"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color indexed="37"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Small Fonts"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="39"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="39"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color indexed="48"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="51">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2062,88 +1830,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor indexed="48"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2438,171 +2126,113 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="48"/>
-      </left>
-      <right style="thin">
-        <color indexed="48"/>
-      </right>
-      <top style="thin">
-        <color indexed="48"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="41"/>
-      </left>
-      <right style="thin">
-        <color indexed="48"/>
-      </right>
-      <top style="medium">
-        <color indexed="41"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="39"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="39"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="39"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="767">
+  <cellStyleXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2619,238 +2249,199 @@
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2858,888 +2449,187 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="6" fillId="37" borderId="28">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="126">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="69" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="69" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="69" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="7" fillId="39" borderId="30" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyBorder="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="66" fillId="0" borderId="31">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="78" fillId="22" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="79" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="78" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="3" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="9" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="17" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="11" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="15" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="19" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="18" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="42" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="10" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="78" fillId="43" borderId="33" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="81" fillId="45" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="82" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="82" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="83" fillId="48" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="84" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="40" borderId="30"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="34" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="86" fillId="0" borderId="29" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="87" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="138">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="57" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="57" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="57" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3748,7 +2638,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3757,34 +2647,34 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3793,10 +2683,10 @@
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3814,94 +2704,94 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3919,61 +2809,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="767">
-    <cellStyle name="20 % - Akzent1 2" xfId="339" xr:uid="{5FF29FE0-F554-42C1-B062-836A4C01766E}"/>
-    <cellStyle name="20 % - Akzent2 2" xfId="340" xr:uid="{F4B79026-DB2D-4CC4-92F1-155638AD9F95}"/>
-    <cellStyle name="20 % - Akzent3 2" xfId="341" xr:uid="{CA19C6B5-3AD7-4CFA-8142-F6C1BCF24029}"/>
-    <cellStyle name="20 % - Akzent4 2" xfId="342" xr:uid="{F9793D1E-7FAD-407E-AF12-99B4EB61E180}"/>
-    <cellStyle name="20 % - Akzent5 2" xfId="343" xr:uid="{AE8FDD48-2678-400C-AD45-201C583B2526}"/>
-    <cellStyle name="20 % - Akzent6 2" xfId="344" xr:uid="{19A21D20-4ADA-434C-A367-460B39C75E68}"/>
-    <cellStyle name="20% - Accent1" xfId="345" xr:uid="{82636C10-0535-49C7-9BD1-FE73665A1806}"/>
-    <cellStyle name="20% - Accent2" xfId="346" xr:uid="{03885C7F-C1EC-4203-94C6-4457DF8D2B75}"/>
-    <cellStyle name="20% - Accent3" xfId="347" xr:uid="{E8956C53-84B6-444D-AB7A-34B8BB6AE954}"/>
-    <cellStyle name="20% - Accent4" xfId="348" xr:uid="{4943E4B9-6F0F-4CAB-B233-D957715893BF}"/>
-    <cellStyle name="20% - Accent5" xfId="349" xr:uid="{D1454749-6E7E-4D62-B85C-38F385F4AACB}"/>
-    <cellStyle name="20% - Accent6" xfId="350" xr:uid="{F8C007D7-5B8A-441E-A838-A7B6CA5A7AC6}"/>
+  <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - akcent 1 10" xfId="351" xr:uid="{314AC25D-BA33-40DF-8B2C-C03408E3F434}"/>
     <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% - akcent 1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -3981,9 +2834,7 @@
     <cellStyle name="20% - akcent 1 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - akcent 1 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="20% - akcent 1 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - akcent 1 9" xfId="352" xr:uid="{5BCC959B-55CB-47AC-85B8-0595AA4F58F2}"/>
     <cellStyle name="20% - akcent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - akcent 2 10" xfId="353" xr:uid="{D9B605DE-69A7-49B8-A2DE-F9FBBB99433D}"/>
     <cellStyle name="20% - akcent 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - akcent 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% - akcent 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -3991,9 +2842,7 @@
     <cellStyle name="20% - akcent 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% - akcent 2 7" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% - akcent 2 8" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - akcent 2 9" xfId="354" xr:uid="{D36AAC3F-7AA6-4FF1-9374-4EC15A5D87D7}"/>
     <cellStyle name="20% - akcent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - akcent 3 10" xfId="355" xr:uid="{60C4D767-AC6E-461D-898D-55D2D186C3FB}"/>
     <cellStyle name="20% - akcent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% - akcent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="20% - akcent 3 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -4001,9 +2850,7 @@
     <cellStyle name="20% - akcent 3 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="20% - akcent 3 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="20% - akcent 3 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - akcent 3 9" xfId="356" xr:uid="{AA31D3F2-D7DD-4C2A-A410-92C71EBC4168}"/>
     <cellStyle name="20% - akcent 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - akcent 4 10" xfId="357" xr:uid="{922CA384-C112-45AB-80AE-400425F7AE79}"/>
     <cellStyle name="20% - akcent 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="20% - akcent 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="20% - akcent 4 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
@@ -4011,9 +2858,7 @@
     <cellStyle name="20% - akcent 4 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="20% - akcent 4 7" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="20% - akcent 4 8" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - akcent 4 9" xfId="358" xr:uid="{277C09CF-E4C4-496F-9D6B-F953469AB68A}"/>
     <cellStyle name="20% - akcent 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - akcent 5 10" xfId="359" xr:uid="{261D9022-D151-4D8B-AD82-F75BC9B796ED}"/>
     <cellStyle name="20% - akcent 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="20% - akcent 5 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="20% - akcent 5 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -4021,9 +2866,7 @@
     <cellStyle name="20% - akcent 5 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="20% - akcent 5 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="20% - akcent 5 8" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - akcent 5 9" xfId="360" xr:uid="{3D78FADD-1E98-4D5F-B97F-AD118057CAEA}"/>
     <cellStyle name="20% - akcent 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - akcent 6 10" xfId="361" xr:uid="{89C68790-5CCE-4497-991B-E0D83757E8AC}"/>
     <cellStyle name="20% - akcent 6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="20% - akcent 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="20% - akcent 6 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
@@ -4031,23 +2874,7 @@
     <cellStyle name="20% - akcent 6 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="20% - akcent 6 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="20% - akcent 6 8" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - akcent 6 9" xfId="362" xr:uid="{92039F29-A2A2-428C-A732-6A547BB9EA70}"/>
-    <cellStyle name="2x indented GHG Textfiels" xfId="363" xr:uid="{8C5F5760-B716-454A-8A3A-DC051131653B}"/>
-    <cellStyle name="2x indented GHG Textfiels 2" xfId="364" xr:uid="{C459858B-4DA2-49E1-987B-B0B495EACAC1}"/>
-    <cellStyle name="40 % - Akzent1 2" xfId="365" xr:uid="{597BB9AA-1213-4672-9A97-264488B5F676}"/>
-    <cellStyle name="40 % - Akzent2 2" xfId="366" xr:uid="{3A87C567-F61E-41FD-923F-3F046C2E7E53}"/>
-    <cellStyle name="40 % - Akzent3 2" xfId="367" xr:uid="{91208B52-94FE-4684-8DD9-4F1C32D54B6A}"/>
-    <cellStyle name="40 % - Akzent4 2" xfId="368" xr:uid="{D97E7268-CC56-4ACC-AAB2-D69A7ED9F834}"/>
-    <cellStyle name="40 % - Akzent5 2" xfId="369" xr:uid="{DB531813-26BE-49C3-9BEF-DF6BB3CEB633}"/>
-    <cellStyle name="40 % - Akzent6 2" xfId="370" xr:uid="{4BDE1296-59B4-412C-AA9C-C14FDB1C0808}"/>
-    <cellStyle name="40% - Accent1" xfId="371" xr:uid="{B15F13DE-43C9-4C2B-A0BE-CBD40F0FC92C}"/>
-    <cellStyle name="40% - Accent2" xfId="372" xr:uid="{75C6AC4C-FA65-4625-82A2-05B21DA547E3}"/>
-    <cellStyle name="40% - Accent3" xfId="373" xr:uid="{927B5580-BDB2-47EA-BD2F-AEDE9DC8137E}"/>
-    <cellStyle name="40% - Accent4" xfId="374" xr:uid="{06A1C0DB-CC24-4B86-A2B0-E32D00997F8E}"/>
-    <cellStyle name="40% - Accent5" xfId="375" xr:uid="{2A0989CD-8DD8-4FAE-9337-D6EC5E4A3B65}"/>
-    <cellStyle name="40% - Accent6" xfId="376" xr:uid="{02C31803-4C0A-4C1A-8FD3-4D1D192CCAF7}"/>
     <cellStyle name="40% - akcent 1" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="40% - akcent 1 10" xfId="377" xr:uid="{071EC49A-1791-48F8-97AA-9F1E9B87D06F}"/>
     <cellStyle name="40% - akcent 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="40% - akcent 1 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="40% - akcent 1 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -4055,9 +2882,7 @@
     <cellStyle name="40% - akcent 1 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="40% - akcent 1 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="40% - akcent 1 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="40% - akcent 1 9" xfId="378" xr:uid="{013A4768-935D-4768-B559-C08CC4878683}"/>
     <cellStyle name="40% - akcent 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - akcent 2 10" xfId="379" xr:uid="{55A830E8-E7E8-4CA9-A781-C4AAF02DDA68}"/>
     <cellStyle name="40% - akcent 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="40% - akcent 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="40% - akcent 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
@@ -4065,9 +2890,7 @@
     <cellStyle name="40% - akcent 2 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="40% - akcent 2 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="40% - akcent 2 8" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - akcent 2 9" xfId="380" xr:uid="{52524CF3-1873-4008-BB28-18468DD76BA6}"/>
     <cellStyle name="40% - akcent 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="40% - akcent 3 10" xfId="381" xr:uid="{9CFF60C8-514C-48B4-B5A9-38821233902B}"/>
     <cellStyle name="40% - akcent 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="40% - akcent 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="40% - akcent 3 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
@@ -4075,9 +2898,7 @@
     <cellStyle name="40% - akcent 3 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="40% - akcent 3 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="40% - akcent 3 8" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - akcent 3 9" xfId="382" xr:uid="{65DC547C-6C77-4A15-8457-1301F7CC7EE0}"/>
     <cellStyle name="40% - akcent 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - akcent 4 10" xfId="383" xr:uid="{BADDE5F5-5DF3-4B5F-BF36-8C772D7C12C5}"/>
     <cellStyle name="40% - akcent 4 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="40% - akcent 4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="40% - akcent 4 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
@@ -4085,9 +2906,7 @@
     <cellStyle name="40% - akcent 4 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="40% - akcent 4 7" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="40% - akcent 4 8" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - akcent 4 9" xfId="384" xr:uid="{89504AFE-4C75-47C9-AA98-927B2BD5572A}"/>
     <cellStyle name="40% - akcent 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - akcent 5 10" xfId="385" xr:uid="{D6E66614-9D5B-480D-8A9F-C071316CCE39}"/>
     <cellStyle name="40% - akcent 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="40% - akcent 5 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="40% - akcent 5 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
@@ -4095,9 +2914,7 @@
     <cellStyle name="40% - akcent 5 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="40% - akcent 5 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="40% - akcent 5 8" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - akcent 5 9" xfId="386" xr:uid="{AA426152-38B9-43A3-814B-3730F447097B}"/>
     <cellStyle name="40% - akcent 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - akcent 6 10" xfId="387" xr:uid="{24EF9927-9691-492D-B7D1-9EB7B9482B73}"/>
     <cellStyle name="40% - akcent 6 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="40% - akcent 6 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="40% - akcent 6 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
@@ -4105,23 +2922,7 @@
     <cellStyle name="40% - akcent 6 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="40% - akcent 6 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="40% - akcent 6 8" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - akcent 6 9" xfId="388" xr:uid="{4ABEC8E1-730B-4183-B05B-88FA8886C302}"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="389" xr:uid="{A63AF222-76B1-4F96-B00B-081F22988850}"/>
-    <cellStyle name="5x indented GHG Textfiels 2" xfId="390" xr:uid="{E2CBF282-1B3B-4074-96CE-AD1D383E6B35}"/>
-    <cellStyle name="60 % - Akzent1 2" xfId="391" xr:uid="{42D426AA-847D-43B0-8B7B-B3B46C935170}"/>
-    <cellStyle name="60 % - Akzent2 2" xfId="392" xr:uid="{C841D75E-6599-4475-863D-20E6A1C4CCA7}"/>
-    <cellStyle name="60 % - Akzent3 2" xfId="393" xr:uid="{63D2E466-DCF6-4153-8EAA-E94C71E0C10C}"/>
-    <cellStyle name="60 % - Akzent4 2" xfId="394" xr:uid="{CC8AD346-893F-480C-8CEE-424D96BBB29F}"/>
-    <cellStyle name="60 % - Akzent5 2" xfId="395" xr:uid="{300BABFE-D07D-4D68-A76C-DCD30AF83CE3}"/>
-    <cellStyle name="60 % - Akzent6 2" xfId="396" xr:uid="{994A4B24-4703-4B72-8729-FB095987CE2F}"/>
-    <cellStyle name="60% - Accent1" xfId="397" xr:uid="{6D176682-75CF-4E26-806D-9C1970672E61}"/>
-    <cellStyle name="60% - Accent2" xfId="398" xr:uid="{72C07E2C-82D9-4031-B9DE-97B98F8C9D70}"/>
-    <cellStyle name="60% - Accent3" xfId="399" xr:uid="{FB747BD8-C5C9-41F2-9BFD-41DFF5F42962}"/>
-    <cellStyle name="60% - Accent4" xfId="400" xr:uid="{81556372-B30C-4BD3-9EF6-7FFD40B41BB8}"/>
-    <cellStyle name="60% - Accent5" xfId="401" xr:uid="{B606981A-113B-4CA0-8A50-429D97EA8ABA}"/>
-    <cellStyle name="60% - Accent6" xfId="402" xr:uid="{3C3917C3-4D47-4135-BB3F-F0666D0DB063}"/>
     <cellStyle name="60% - akcent 1" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="60% - akcent 1 10" xfId="403" xr:uid="{F1BAA64A-E405-4B5D-8535-FFE1FBCF13EF}"/>
     <cellStyle name="60% - akcent 1 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
     <cellStyle name="60% - akcent 1 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
     <cellStyle name="60% - akcent 1 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
@@ -4129,9 +2930,7 @@
     <cellStyle name="60% - akcent 1 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="60% - akcent 1 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="60% - akcent 1 8" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="60% - akcent 1 9" xfId="404" xr:uid="{27BBFFCD-3BE6-40D9-8E82-3BA7B2D9EA34}"/>
     <cellStyle name="60% - akcent 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="60% - akcent 2 10" xfId="405" xr:uid="{76B70861-B8BD-446D-BE18-E9FAFAC8E245}"/>
     <cellStyle name="60% - akcent 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="60% - akcent 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
     <cellStyle name="60% - akcent 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
@@ -4139,9 +2938,7 @@
     <cellStyle name="60% - akcent 2 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="60% - akcent 2 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="60% - akcent 2 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="60% - akcent 2 9" xfId="406" xr:uid="{3A0B1A71-E65C-4FE1-81C9-0536069F5DA0}"/>
     <cellStyle name="60% - akcent 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="60% - akcent 3 10" xfId="407" xr:uid="{784FAC09-5B5F-4D0B-9EB3-8E32F492CAA6}"/>
     <cellStyle name="60% - akcent 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
     <cellStyle name="60% - akcent 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
     <cellStyle name="60% - akcent 3 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
@@ -4149,9 +2946,7 @@
     <cellStyle name="60% - akcent 3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="60% - akcent 3 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="60% - akcent 3 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="60% - akcent 3 9" xfId="408" xr:uid="{D805286A-D396-431A-B13E-D0D8C2DB7D80}"/>
     <cellStyle name="60% - akcent 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="60% - akcent 4 10" xfId="409" xr:uid="{BE9FFB82-D67D-4B18-8A31-86CBDDCF7680}"/>
     <cellStyle name="60% - akcent 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="60% - akcent 4 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="60% - akcent 4 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
@@ -4159,9 +2954,7 @@
     <cellStyle name="60% - akcent 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="60% - akcent 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
     <cellStyle name="60% - akcent 4 8" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="60% - akcent 4 9" xfId="410" xr:uid="{4BE2CA33-5FE3-4BEC-8952-6E3B87338B3D}"/>
     <cellStyle name="60% - akcent 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="60% - akcent 5 10" xfId="411" xr:uid="{78E063FC-AC6F-4EAA-88F3-CDE89244FB2D}"/>
     <cellStyle name="60% - akcent 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="60% - akcent 5 3" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
     <cellStyle name="60% - akcent 5 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
@@ -4169,9 +2962,7 @@
     <cellStyle name="60% - akcent 5 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
     <cellStyle name="60% - akcent 5 7" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="60% - akcent 5 8" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="60% - akcent 5 9" xfId="412" xr:uid="{DE928582-625E-4828-9F47-AFB72034E3B8}"/>
     <cellStyle name="60% - akcent 6" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="60% - akcent 6 10" xfId="413" xr:uid="{9C4F5DDE-5293-40B2-9778-90916C5F8DD2}"/>
     <cellStyle name="60% - akcent 6 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="60% - akcent 6 3" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="60% - akcent 6 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
@@ -4179,16 +2970,7 @@
     <cellStyle name="60% - akcent 6 6" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="60% - akcent 6 7" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="60% - akcent 6 8" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="60% - akcent 6 9" xfId="414" xr:uid="{8330C18F-FA29-41E3-9FEF-EB1A148FF87D}"/>
-    <cellStyle name="Accent1" xfId="415" xr:uid="{755655B4-DCA3-4F68-8115-8C8592569A96}"/>
-    <cellStyle name="Accent2" xfId="416" xr:uid="{34F8DC9A-6D27-4BC3-8058-B42D56946983}"/>
-    <cellStyle name="Accent3" xfId="417" xr:uid="{C596C202-455F-4520-8343-C37ED1E525AB}"/>
-    <cellStyle name="Accent4" xfId="418" xr:uid="{AB6F1629-D4CB-49A0-8C10-F5DA7A2C865B}"/>
-    <cellStyle name="Accent5" xfId="419" xr:uid="{6B9D174D-92D3-462B-B874-D8A596421E68}"/>
-    <cellStyle name="Accent6" xfId="420" xr:uid="{4D6B11A3-8898-4F66-92B9-01D9A4BD7178}"/>
-    <cellStyle name="Actual Date" xfId="421" xr:uid="{AAE224FE-E7B4-4B5C-AAFD-4C2807F51EA9}"/>
     <cellStyle name="Akcent 1" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Akcent 1 10" xfId="422" xr:uid="{B79BC4C7-9818-4AFE-BED7-FBB4875DC51F}"/>
     <cellStyle name="Akcent 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
     <cellStyle name="Akcent 1 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="Akcent 1 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
@@ -4196,9 +2978,7 @@
     <cellStyle name="Akcent 1 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="Akcent 1 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="Akcent 1 8" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Akcent 1 9" xfId="423" xr:uid="{D770C23F-E949-4B2A-9EAC-4F518FDD749F}"/>
     <cellStyle name="Akcent 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Akcent 2 10" xfId="424" xr:uid="{3B37C19F-D21C-4CDC-A5BF-33362D4F5D97}"/>
     <cellStyle name="Akcent 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
     <cellStyle name="Akcent 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
     <cellStyle name="Akcent 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
@@ -4206,9 +2986,7 @@
     <cellStyle name="Akcent 2 6" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="Akcent 2 7" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="Akcent 2 8" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Akcent 2 9" xfId="425" xr:uid="{68A781C8-7046-43A6-BA2E-E7C502243E7D}"/>
     <cellStyle name="Akcent 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Akcent 3 10" xfId="426" xr:uid="{BE517BDD-D01E-49E7-957F-FEB5D1E8878F}"/>
     <cellStyle name="Akcent 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Akcent 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
     <cellStyle name="Akcent 3 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
@@ -4216,9 +2994,7 @@
     <cellStyle name="Akcent 3 6" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Akcent 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Akcent 3 8" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Akcent 3 9" xfId="427" xr:uid="{7B2F9EFC-42EB-4470-8969-7EF00B18C226}"/>
     <cellStyle name="Akcent 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Akcent 4 10" xfId="428" xr:uid="{6FA2FE17-F9BF-4F4E-A8C8-901986449FC8}"/>
     <cellStyle name="Akcent 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="Akcent 4 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
     <cellStyle name="Akcent 4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
@@ -4226,9 +3002,7 @@
     <cellStyle name="Akcent 4 6" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
     <cellStyle name="Akcent 4 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="Akcent 4 8" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="Akcent 4 9" xfId="429" xr:uid="{7C69E046-88B3-416F-A5DF-07F14764E7DF}"/>
     <cellStyle name="Akcent 5" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Akcent 5 10" xfId="430" xr:uid="{ACF1B106-703F-4F8F-A5DE-D0ECB3295101}"/>
     <cellStyle name="Akcent 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
     <cellStyle name="Akcent 5 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
     <cellStyle name="Akcent 5 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
@@ -4236,9 +3010,7 @@
     <cellStyle name="Akcent 5 6" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
     <cellStyle name="Akcent 5 7" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
     <cellStyle name="Akcent 5 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Akcent 5 9" xfId="431" xr:uid="{03FA835B-D5BB-468D-972E-2B582AC1E4D8}"/>
     <cellStyle name="Akcent 6" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Akcent 6 10" xfId="432" xr:uid="{9CFA743E-0444-4ED8-9709-50B24D984D5B}"/>
     <cellStyle name="Akcent 6 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Akcent 6 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Akcent 6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
@@ -4246,26 +3018,7 @@
     <cellStyle name="Akcent 6 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Akcent 6 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Akcent 6 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Akcent 6 9" xfId="433" xr:uid="{E13D6E72-E6F0-4A1C-A1DC-77C9AEC4083D}"/>
-    <cellStyle name="Akzent1 2" xfId="434" xr:uid="{403A8B72-59C8-45F5-B1D6-50FCC6CA99A0}"/>
-    <cellStyle name="Akzent2 2" xfId="435" xr:uid="{631202EB-9A08-4AC9-897C-7544EC684859}"/>
-    <cellStyle name="Akzent3 2" xfId="436" xr:uid="{1D3122F7-0CF4-4202-BD77-6A4967163823}"/>
-    <cellStyle name="Akzent4 2" xfId="437" xr:uid="{5830F37C-799C-4A12-97BC-1F9F3F66C442}"/>
-    <cellStyle name="Akzent5 2" xfId="438" xr:uid="{DE174DEB-80F7-4FFE-B0D0-5006A271B5EB}"/>
-    <cellStyle name="Akzent6 2" xfId="439" xr:uid="{72B987B1-9B01-4133-B4AC-FBC0B48E0F46}"/>
-    <cellStyle name="Ausgabe 2" xfId="440" xr:uid="{EC710D2A-3B50-4213-B8A9-D2CB1D0E3FCD}"/>
-    <cellStyle name="Bad" xfId="441" xr:uid="{1205CE16-E424-4208-9D64-735DA996E4BD}"/>
-    <cellStyle name="Berechnung 2" xfId="442" xr:uid="{85980431-258B-492A-B199-1A667C948DAE}"/>
-    <cellStyle name="Calculation" xfId="443" xr:uid="{AFC11BCB-C643-4AE1-A725-6D29565E80D4}"/>
-    <cellStyle name="Check Cell" xfId="444" xr:uid="{9150347B-D362-439B-A812-54DBBC6BCBA4}"/>
-    <cellStyle name="ColLevel_" xfId="445" xr:uid="{B0A131FB-4C1C-4305-B6FD-6DE2044F8F99}"/>
-    <cellStyle name="Comma0" xfId="446" xr:uid="{0823BFD2-F3B2-4A63-BFAF-EDCAC7A15751}"/>
-    <cellStyle name="Comma0 - Style1" xfId="447" xr:uid="{70CCBCFB-FA99-454B-87FB-8557582BD38D}"/>
-    <cellStyle name="Comma0 - Style2" xfId="448" xr:uid="{810E515D-6397-4A3E-90A7-4948A39523B6}"/>
-    <cellStyle name="Comma0_Input" xfId="449" xr:uid="{CE7B5E62-8C9D-4ED6-B0A0-7264B088CBD0}"/>
-    <cellStyle name="Currency0" xfId="450" xr:uid="{B3A06E39-34A4-4250-8811-808BF13DD903}"/>
     <cellStyle name="Dane wejściowe" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Dane wejściowe 10" xfId="451" xr:uid="{8F109617-896F-4B7C-B9E6-87EBAF9EEE07}"/>
     <cellStyle name="Dane wejściowe 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
     <cellStyle name="Dane wejściowe 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="Dane wejściowe 4" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
@@ -4273,9 +3026,7 @@
     <cellStyle name="Dane wejściowe 6" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
     <cellStyle name="Dane wejściowe 7" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="Dane wejściowe 8" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Dane wejściowe 9" xfId="452" xr:uid="{C5DBB5BD-699E-4827-B098-0EACBD668D0C}"/>
     <cellStyle name="Dane wyjściowe" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Dane wyjściowe 10" xfId="453" xr:uid="{950AFE09-8F5A-4CDB-B2E4-CFE3D26591C3}"/>
     <cellStyle name="Dane wyjściowe 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="Dane wyjściowe 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="Dane wyjściowe 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
@@ -4283,15 +3034,7 @@
     <cellStyle name="Dane wyjściowe 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
     <cellStyle name="Dane wyjściowe 7" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="Dane wyjściowe 8" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Dane wyjściowe 9" xfId="454" xr:uid="{2D5A2CCC-8435-407B-8FEC-29F04CE4113F}"/>
-    <cellStyle name="Date" xfId="455" xr:uid="{43B166A9-B18B-4E55-93E7-9546A3A2811C}"/>
-    <cellStyle name="DateTime" xfId="456" xr:uid="{CC4ED2BB-B11D-4814-BEF2-E5BD5A9A8E74}"/>
-    <cellStyle name="Dezimal [0] 2" xfId="457" xr:uid="{534E12F6-D4CB-45F1-AD87-740B1C4582B7}"/>
-    <cellStyle name="Dezimal 2" xfId="458" xr:uid="{E035D5B3-03F3-4814-A808-D0DDEF8FE2CB}"/>
-    <cellStyle name="Dezimal 3" xfId="459" xr:uid="{518319FD-D935-45D9-AFEF-EFADC84A1749}"/>
-    <cellStyle name="Dezimal_Results_Pan_EU_OLGA_NUC" xfId="460" xr:uid="{8927B27C-23AF-455E-BC2B-E29F8FF73804}"/>
     <cellStyle name="Dobre" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Dobre 10" xfId="461" xr:uid="{65827B6D-0E3C-4FBA-A064-0AE72D9E213D}"/>
     <cellStyle name="Dobre 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
     <cellStyle name="Dobre 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="Dobre 4" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
@@ -4299,83 +3042,8 @@
     <cellStyle name="Dobre 6" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Dobre 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Dobre 8" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Dobre 9" xfId="462" xr:uid="{8FEC4D01-C79B-4D21-A318-FB22160E7720}"/>
-    <cellStyle name="Eingabe 2" xfId="463" xr:uid="{44B0025C-BBE3-43BB-87D7-B7C327D931D3}"/>
-    <cellStyle name="Ergebnis 2" xfId="464" xr:uid="{8BEF438E-91DE-46F8-B1B4-62918214132B}"/>
-    <cellStyle name="Erklärender Text 2" xfId="465" xr:uid="{8048FB89-B631-445E-B072-485D827712B0}"/>
     <cellStyle name="Euro" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Euro 2" xfId="466" xr:uid="{6A06957B-F5F5-46B5-9554-34AE84C9FC45}"/>
-    <cellStyle name="Euro 2 2" xfId="467" xr:uid="{C0F6A8DC-FD46-4E2A-80CD-1C04B896276E}"/>
-    <cellStyle name="Euro 2 3" xfId="468" xr:uid="{BACDC90A-BDB4-413C-853E-908716F2B6B6}"/>
-    <cellStyle name="Euro 3" xfId="469" xr:uid="{55CF7AFD-9E02-4647-B2FA-893C64D55F4C}"/>
-    <cellStyle name="Explanatory Text" xfId="470" xr:uid="{7B226C3D-AA62-4959-815A-869AE6010C2C}"/>
-    <cellStyle name="Fixed" xfId="471" xr:uid="{C055B6D5-44B9-4541-BF4D-522771A87457}"/>
-    <cellStyle name="Fixed1 - Style1" xfId="472" xr:uid="{285D017D-F09A-488A-B056-5389005DBF50}"/>
-    <cellStyle name="Good" xfId="473" xr:uid="{722897D3-A224-44CD-AA81-E86136268094}"/>
-    <cellStyle name="Grey" xfId="474" xr:uid="{E4A51BA2-78EC-483C-BE36-CE91243ED38D}"/>
-    <cellStyle name="Gut 2" xfId="475" xr:uid="{9ACA0EDC-36FF-4D8F-A2A9-5E967B64DB5D}"/>
-    <cellStyle name="HEADER" xfId="476" xr:uid="{D6DC74F1-2051-4A38-9067-8D28A6CD8C22}"/>
-    <cellStyle name="Heading 1" xfId="477" xr:uid="{FABAA7A7-37F2-4E7F-AEA3-161D60C1249D}"/>
-    <cellStyle name="Heading 1 10" xfId="478" xr:uid="{17427420-2869-45C5-AB43-674DCACBA54A}"/>
-    <cellStyle name="Heading 1 11" xfId="479" xr:uid="{1DB0277B-D82D-4808-859A-07F57B2C17AE}"/>
-    <cellStyle name="Heading 1 12" xfId="480" xr:uid="{2CC8C889-A9C1-4DD9-A566-F514DD6F1FCA}"/>
-    <cellStyle name="Heading 1 13" xfId="481" xr:uid="{52C50282-45F9-4EF8-9A4D-EE3A314073A4}"/>
-    <cellStyle name="Heading 1 14" xfId="482" xr:uid="{0E3F843A-8035-4216-A5AE-EB5E59352C81}"/>
-    <cellStyle name="Heading 1 15" xfId="483" xr:uid="{70A499CD-9491-4E1A-B751-4AFA8BE10ADE}"/>
-    <cellStyle name="Heading 1 16" xfId="484" xr:uid="{4E0DD0F9-63C9-466C-AF3E-8679F3810652}"/>
-    <cellStyle name="Heading 1 17" xfId="485" xr:uid="{3887BACE-280D-490A-80D3-48EC45E5A99C}"/>
-    <cellStyle name="Heading 1 18" xfId="486" xr:uid="{E1360AF6-136F-4A75-BFAF-E7E08618EBC3}"/>
-    <cellStyle name="Heading 1 19" xfId="487" xr:uid="{5F3F021C-0446-4D8D-B4F6-0CBE466EAB8D}"/>
-    <cellStyle name="Heading 1 2" xfId="488" xr:uid="{AA6462E6-7D19-4572-9687-1A6675CDE74C}"/>
-    <cellStyle name="Heading 1 3" xfId="489" xr:uid="{F61623D1-3397-418D-A56E-E71EBDF533F4}"/>
-    <cellStyle name="Heading 1 4" xfId="490" xr:uid="{58BDF06B-CDC7-48B1-BB46-6A25CD503483}"/>
-    <cellStyle name="Heading 1 5" xfId="491" xr:uid="{071241BD-AA6D-45FF-B2E3-E63052447A79}"/>
-    <cellStyle name="Heading 1 6" xfId="492" xr:uid="{59F7F555-0183-4B8D-A30B-18AED36128C7}"/>
-    <cellStyle name="Heading 1 7" xfId="493" xr:uid="{BE862D14-C0BD-4CB5-8A42-29BDA96204E0}"/>
-    <cellStyle name="Heading 1 8" xfId="494" xr:uid="{3135B2D3-756D-457A-8E82-E818A9CA264A}"/>
-    <cellStyle name="Heading 1 9" xfId="495" xr:uid="{289B64D1-F3BE-4AA6-A242-786F95A506E1}"/>
-    <cellStyle name="Heading 2" xfId="496" xr:uid="{09AD54C7-FF33-48E7-8191-7E2F9D784514}"/>
-    <cellStyle name="Heading 2 10" xfId="497" xr:uid="{7AB01D65-8ED4-46D7-8E9B-731AEF6A7372}"/>
-    <cellStyle name="Heading 2 11" xfId="498" xr:uid="{1B97EC72-35B3-4B62-AE4D-2ABB3849CA4C}"/>
-    <cellStyle name="Heading 2 12" xfId="499" xr:uid="{2EF10550-209A-430C-9CA1-C2BA91899FEB}"/>
-    <cellStyle name="Heading 2 13" xfId="500" xr:uid="{32FA48DB-C0FB-4663-ACFD-6955B85ACF98}"/>
-    <cellStyle name="Heading 2 14" xfId="501" xr:uid="{52467042-D52A-41AB-BB70-AE818AA060A9}"/>
-    <cellStyle name="Heading 2 15" xfId="502" xr:uid="{F6600C0B-4CAD-4DB8-9992-59E5D6E2826E}"/>
-    <cellStyle name="Heading 2 16" xfId="503" xr:uid="{CD3BD505-603B-4F40-89C9-FEB2A7546113}"/>
-    <cellStyle name="Heading 2 17" xfId="504" xr:uid="{73B227EC-84E7-4E0F-B046-5A27DF63F3C5}"/>
-    <cellStyle name="Heading 2 18" xfId="505" xr:uid="{87E019F4-0A1C-4FFC-9D85-5110D7A22BCB}"/>
-    <cellStyle name="Heading 2 19" xfId="506" xr:uid="{862382AA-195A-4359-8D58-CF0AED6A4850}"/>
-    <cellStyle name="Heading 2 2" xfId="507" xr:uid="{89E900A9-CFF3-4F0D-BF32-1C0350816141}"/>
-    <cellStyle name="Heading 2 3" xfId="508" xr:uid="{ACB305E9-0646-4EA8-AB91-1B4630DA44A1}"/>
-    <cellStyle name="Heading 2 4" xfId="509" xr:uid="{0A3E2386-38CE-4698-B524-6A95E9999B35}"/>
-    <cellStyle name="Heading 2 5" xfId="510" xr:uid="{B956CA11-4BB1-421A-92AE-FC134CBB6722}"/>
-    <cellStyle name="Heading 2 6" xfId="511" xr:uid="{47C690C5-E4E7-46D4-BB5C-305BEDB5DAAF}"/>
-    <cellStyle name="Heading 2 7" xfId="512" xr:uid="{85B09D42-182A-47FC-A9E0-BEA125A4B757}"/>
-    <cellStyle name="Heading 2 8" xfId="513" xr:uid="{04A8312C-C018-4033-9E8A-C5EFF96654AB}"/>
-    <cellStyle name="Heading 2 9" xfId="514" xr:uid="{7159433C-D749-4CF8-85D1-31A1BBDA0429}"/>
-    <cellStyle name="Heading 3" xfId="515" xr:uid="{2FBF62B6-7137-4B68-8025-939DEAFA1926}"/>
-    <cellStyle name="Heading 4" xfId="516" xr:uid="{59BE1007-C614-4A9E-870A-59FE8863CDDB}"/>
-    <cellStyle name="Heading1" xfId="517" xr:uid="{477AC3B6-18A4-47B2-9FCF-4A431A336A69}"/>
-    <cellStyle name="Heading2" xfId="518" xr:uid="{54EF937C-32D4-4DCB-88EB-7AB14F233681}"/>
-    <cellStyle name="Headline" xfId="519" xr:uid="{5CD3B38D-D545-4117-97D7-B7213827055F}"/>
-    <cellStyle name="HIGHLIGHT" xfId="520" xr:uid="{1A55AB46-2129-4D53-AD2D-05960F9BD880}"/>
-    <cellStyle name="Hiperłącze 2" xfId="521" xr:uid="{2E382360-9DEB-4883-8F4D-DFF6D3DD50E9}"/>
-    <cellStyle name="Hiperłącze 2 2" xfId="522" xr:uid="{811DA0EE-1A08-47D2-BA26-F0649E9276C8}"/>
-    <cellStyle name="Hiperłącze 2 3" xfId="523" xr:uid="{E5D746A9-9996-4AC9-8E3E-ACC9FF71F3A2}"/>
-    <cellStyle name="Hyperlink 2" xfId="524" xr:uid="{3C04AC38-A825-4CBC-90EE-A099E3E994FE}"/>
-    <cellStyle name="Hyperlink 3" xfId="525" xr:uid="{C1DDF9BA-61C6-4460-AD1A-B0FAAA4BA141}"/>
-    <cellStyle name="Hyperlink 3 2" xfId="526" xr:uid="{C8689288-532E-4D0E-B916-A55A88F8DFF6}"/>
-    <cellStyle name="Hyperlink 3 3" xfId="527" xr:uid="{6FB4EEC6-5DC7-4D28-B830-523720892C5A}"/>
-    <cellStyle name="Hyperlink 4" xfId="528" xr:uid="{7641B98D-8B2A-4130-8FD9-971EFB6F1903}"/>
-    <cellStyle name="Input" xfId="529" xr:uid="{DCB2459F-DE8E-4F02-A738-8171084E9CED}"/>
-    <cellStyle name="Input [yellow]" xfId="530" xr:uid="{3C9B02A7-2018-470A-B65C-94CC2067A917}"/>
-    <cellStyle name="InputCells" xfId="531" xr:uid="{CBF5A600-FA85-44B9-BD85-D04AD5859A63}"/>
-    <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="532" xr:uid="{84776821-61B1-407D-804C-095D5FD588DC}"/>
-    <cellStyle name="Komma 2" xfId="533" xr:uid="{649BAE37-B21A-4F51-9986-5599CF0EC71D}"/>
-    <cellStyle name="Komma 3" xfId="534" xr:uid="{EF061E92-C179-4022-8A20-C1B4E396A59A}"/>
-    <cellStyle name="Komma 4" xfId="535" xr:uid="{97E7C443-250A-4AD7-9FB2-06C5BC525AAB}"/>
     <cellStyle name="Komórka połączona" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Komórka połączona 10" xfId="536" xr:uid="{6B1FC34A-5F26-4F02-B110-FC204CAFB35E}"/>
     <cellStyle name="Komórka połączona 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
     <cellStyle name="Komórka połączona 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
     <cellStyle name="Komórka połączona 4" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
@@ -4383,9 +3051,7 @@
     <cellStyle name="Komórka połączona 6" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="Komórka połączona 7" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
     <cellStyle name="Komórka połączona 8" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Komórka połączona 9" xfId="537" xr:uid="{50DEACF2-907F-442E-B118-EB592900E649}"/>
     <cellStyle name="Komórka zaznaczona" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="Komórka zaznaczona 10" xfId="538" xr:uid="{EE72AF91-F7CA-411A-AF3D-158A11B86C0E}"/>
     <cellStyle name="Komórka zaznaczona 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="Komórka zaznaczona 3" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Komórka zaznaczona 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
@@ -4393,10 +3059,7 @@
     <cellStyle name="Komórka zaznaczona 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Komórka zaznaczona 7" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
     <cellStyle name="Komórka zaznaczona 8" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="Komórka zaznaczona 9" xfId="539" xr:uid="{A06BE6B6-E5E5-4350-AC53-8A37BD9260B7}"/>
-    <cellStyle name="Linked Cell" xfId="540" xr:uid="{A389BC91-CAFC-409D-997F-B61941E01B2F}"/>
     <cellStyle name="Nagłówek 1" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="Nagłówek 1 10" xfId="541" xr:uid="{9F62D6A1-DE8F-4BFE-9FEE-C20D70503DEF}"/>
     <cellStyle name="Nagłówek 1 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Nagłówek 1 3" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Nagłówek 1 4" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
@@ -4404,9 +3067,7 @@
     <cellStyle name="Nagłówek 1 6" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Nagłówek 1 7" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
     <cellStyle name="Nagłówek 1 8" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Nagłówek 1 9" xfId="542" xr:uid="{BF816C73-9A8E-4E70-AB0E-EE9015A5542F}"/>
     <cellStyle name="Nagłówek 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="Nagłówek 2 10" xfId="543" xr:uid="{9E3D704D-E70D-4FB4-8B80-9EBE81F461B4}"/>
     <cellStyle name="Nagłówek 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
     <cellStyle name="Nagłówek 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
     <cellStyle name="Nagłówek 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
@@ -4414,9 +3075,7 @@
     <cellStyle name="Nagłówek 2 6" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
     <cellStyle name="Nagłówek 2 7" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Nagłówek 2 8" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Nagłówek 2 9" xfId="544" xr:uid="{19BCB53A-A93B-4DFC-9844-5E5881F98C8F}"/>
     <cellStyle name="Nagłówek 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="Nagłówek 3 10" xfId="545" xr:uid="{3994FAD0-B6CC-4E5D-872F-6FA9F92950CF}"/>
     <cellStyle name="Nagłówek 3 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="Nagłówek 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
     <cellStyle name="Nagłówek 3 4" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
@@ -4424,9 +3083,7 @@
     <cellStyle name="Nagłówek 3 6" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="Nagłówek 3 7" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Nagłówek 3 8" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="Nagłówek 3 9" xfId="546" xr:uid="{0697953B-9731-4B66-838D-E8765BDEB9C7}"/>
     <cellStyle name="Nagłówek 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="Nagłówek 4 10" xfId="547" xr:uid="{50CC987D-88F2-442D-87C2-3A866D43EAFF}"/>
     <cellStyle name="Nagłówek 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="Nagłówek 4 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
     <cellStyle name="Nagłówek 4 4" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
@@ -4434,11 +3091,7 @@
     <cellStyle name="Nagłówek 4 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Nagłówek 4 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Nagłówek 4 8" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Nagłówek 4 9" xfId="548" xr:uid="{A6A046E9-3378-472B-9CF1-9924D8C8F0BB}"/>
-    <cellStyle name="Neutral" xfId="549" xr:uid="{E1E91233-2D14-4B02-BD1E-A1D17144FDC9}"/>
-    <cellStyle name="Neutral 2" xfId="550" xr:uid="{9707197B-D398-4376-AEAE-F170C1BF0DB3}"/>
     <cellStyle name="Neutralne" xfId="266" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="Neutralne 10" xfId="551" xr:uid="{13858E53-905F-4609-B4EA-1885929C53E2}"/>
     <cellStyle name="Neutralne 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
     <cellStyle name="Neutralne 3" xfId="268" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
     <cellStyle name="Neutralne 4" xfId="269" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
@@ -4446,46 +3099,15 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Neutralne 9" xfId="552" xr:uid="{43A4FFC8-1C6F-45A8-8B7E-A9A3A4AA2E02}"/>
-    <cellStyle name="no dec" xfId="553" xr:uid="{F1E96FB0-75B4-40B0-ABD0-65905D19B749}"/>
-    <cellStyle name="Normal - Style1" xfId="554" xr:uid="{08F08850-98EB-4F08-B68C-0BA0625EEF99}"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Normal 14" xfId="555" xr:uid="{120B2359-A791-4208-94B8-2155168DEF6A}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="Normal 20" xfId="556" xr:uid="{A870C46E-06AC-4128-99C3-9ACCC613560F}"/>
-    <cellStyle name="Normal 21" xfId="557" xr:uid="{D3E87875-E5FE-4E5E-B98E-86B296326BA4}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Normal 3 2" xfId="558" xr:uid="{F5E7D1C6-D65F-4B85-B4A6-B32E9BD82C95}"/>
-    <cellStyle name="Normal 3 3" xfId="559" xr:uid="{1950311D-481F-4760-944F-69C90CB6FF01}"/>
-    <cellStyle name="Normal 4" xfId="338" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
-    <cellStyle name="Normal 4 2" xfId="560" xr:uid="{E3309183-0E9E-4DB9-9AB5-79176FE504B0}"/>
-    <cellStyle name="Normal 5" xfId="561" xr:uid="{5BB5D93B-27EC-4F6B-AB54-8DDE78DAC761}"/>
-    <cellStyle name="Normal 5 2" xfId="562" xr:uid="{828EBCAB-4C75-4404-8201-7D8151D4DEAA}"/>
-    <cellStyle name="Normal 6" xfId="563" xr:uid="{1458C9B2-9AD3-48DF-A1B2-D46C78C62188}"/>
-    <cellStyle name="Normal 6 2" xfId="564" xr:uid="{3D12D2C4-F1D8-4A6D-8E50-199AED4E567A}"/>
-    <cellStyle name="Normal 7" xfId="565" xr:uid="{54AF6404-02F8-4174-ABC8-779F7B746225}"/>
-    <cellStyle name="Normal 7 2" xfId="566" xr:uid="{65477E1B-4954-4B4A-ABA7-E9FB4B4A0A6E}"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="567" xr:uid="{4B7A0834-C9EA-46B5-8F24-5B79E9AFF988}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="568" xr:uid="{9E444E51-3887-49A9-B395-47210429831A}"/>
-    <cellStyle name="Normal GHG-Shade 2" xfId="569" xr:uid="{BACDDBCE-A5F0-42ED-99B0-FA4A0B4FB0F3}"/>
+    <cellStyle name="Normal 4" xfId="339" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="570" xr:uid="{518D1AB2-264B-4EEB-8112-0415DB7576CC}"/>
-    <cellStyle name="Normalny 10 2" xfId="571" xr:uid="{C69AE297-061E-4F51-99CA-2D31FC6029B8}"/>
-    <cellStyle name="Normalny 11" xfId="572" xr:uid="{9ECE0CBC-9CD5-49A0-A4CB-AD22011B3C77}"/>
-    <cellStyle name="Normalny 11 2" xfId="573" xr:uid="{69FAC1C9-D5D3-448D-86EC-593A3787776B}"/>
-    <cellStyle name="Normalny 11 3" xfId="574" xr:uid="{2DABCD42-B923-4CFE-B77B-4CC5CC5D0411}"/>
-    <cellStyle name="Normalny 12" xfId="575" xr:uid="{5AC4F3F1-599B-48E2-9383-2D9FA5B6AC58}"/>
-    <cellStyle name="Normalny 13" xfId="576" xr:uid="{AACF88CA-BBDD-4724-9DB9-965E00E46349}"/>
-    <cellStyle name="Normalny 13 2" xfId="577" xr:uid="{DF00CA32-06F4-46A2-8319-CF4D458961A1}"/>
-    <cellStyle name="Normalny 13 3" xfId="578" xr:uid="{74271FFB-7ECD-403F-BE10-10176003A368}"/>
-    <cellStyle name="Normalny 14" xfId="579" xr:uid="{77E55615-CA6F-450A-B370-A33D04161846}"/>
-    <cellStyle name="Normalny 15" xfId="580" xr:uid="{0AE5D62E-7C6A-483C-B215-BEF5C909967E}"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Normalny 2 2" xfId="582" xr:uid="{824E899A-A9DF-4542-B736-D1CD16EB3F3B}"/>
-    <cellStyle name="Normalny 2 3" xfId="581" xr:uid="{41B77F0B-189E-4541-AD40-6DF2A13096A0}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
     <cellStyle name="Normalny 5" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
@@ -4493,10 +3115,7 @@
     <cellStyle name="Normalny 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Normalny 8" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Normalny 9" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="Note" xfId="583" xr:uid="{11AD4605-48C8-4310-A061-BAAFB05F3393}"/>
-    <cellStyle name="Notiz 2" xfId="584" xr:uid="{4DD7BBC6-BBC5-4FDD-86AF-4B7235F4C60A}"/>
     <cellStyle name="Obliczenia" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Obliczenia 10" xfId="585" xr:uid="{566D1626-BE05-4B40-9142-588EC306CAC7}"/>
     <cellStyle name="Obliczenia 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
     <cellStyle name="Obliczenia 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
     <cellStyle name="Obliczenia 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
@@ -4504,229 +3123,49 @@
     <cellStyle name="Obliczenia 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
     <cellStyle name="Obliczenia 7" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
     <cellStyle name="Obliczenia 8" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Obliczenia 9" xfId="586" xr:uid="{4DA3D117-D28F-4B94-B094-44830ABE85BE}"/>
-    <cellStyle name="Output" xfId="587" xr:uid="{447FF3C3-8F8E-4889-8873-20621C02B8C3}"/>
-    <cellStyle name="Percent [2]" xfId="588" xr:uid="{402782D9-C969-4080-9944-60BAB5B53B75}"/>
-    <cellStyle name="Procentowy 2" xfId="589" xr:uid="{053E0A59-8F19-4B5D-A77A-ECE93DE46E59}"/>
-    <cellStyle name="Procentowy 2 2" xfId="590" xr:uid="{AB3FD3A8-E3CC-404E-BB29-97A4FF731867}"/>
-    <cellStyle name="Procentowy 2 3" xfId="591" xr:uid="{B7470D9E-B00E-4DBC-94AF-1023A4DBAF5A}"/>
-    <cellStyle name="Procentowy 3" xfId="592" xr:uid="{04687145-9D1D-439B-995F-944F3A3D621E}"/>
-    <cellStyle name="Prozent 2" xfId="593" xr:uid="{3A6E351B-66C4-4F3F-B066-F0A12F77E90E}"/>
-    <cellStyle name="Prozent 2 2" xfId="594" xr:uid="{353E522C-761B-4255-A794-ADB9BDE6828C}"/>
-    <cellStyle name="Prozent 3" xfId="595" xr:uid="{7C47D55E-9A65-4511-9ABA-CAD0A61CE799}"/>
-    <cellStyle name="Prozent 4" xfId="596" xr:uid="{FDFF8195-98C5-4772-B72A-693053362F0A}"/>
-    <cellStyle name="Prozent 5" xfId="597" xr:uid="{547D3D76-EE9D-4F73-939A-84F686E72209}"/>
-    <cellStyle name="Prozent 5 2" xfId="598" xr:uid="{F0C96C6D-2E89-4695-822C-117083562D0A}"/>
-    <cellStyle name="Prozent 5 3" xfId="599" xr:uid="{AB517BAD-70E2-49A6-B90B-0CD60DF031A8}"/>
-    <cellStyle name="Prozent 5 4" xfId="600" xr:uid="{D109B93F-B7BA-42E8-99FF-1C19FEA141DB}"/>
-    <cellStyle name="Prozent 6" xfId="601" xr:uid="{9FB4170E-B872-4CDD-9027-89B298245C89}"/>
-    <cellStyle name="Prozent 6 2" xfId="602" xr:uid="{0957B2F2-59E9-46C9-BCF4-67AFD7DD6304}"/>
-    <cellStyle name="Prozent 6 3" xfId="603" xr:uid="{2458EFD8-FDD8-40AC-A6D7-13A24448C87F}"/>
-    <cellStyle name="Prozent 6 4" xfId="604" xr:uid="{2BE34395-CF26-4E31-B0C5-EF9ED51BBF10}"/>
-    <cellStyle name="Prozent 7" xfId="605" xr:uid="{B5F32963-2891-4BC2-AC0F-4AF218DE0988}"/>
-    <cellStyle name="Prozent 8" xfId="606" xr:uid="{EC2411C4-2EE6-49D8-AC2C-52E0627DCB7E}"/>
-    <cellStyle name="Prozent 8 2" xfId="607" xr:uid="{6F5C25B2-202E-40FE-B5C4-AA58E49A99D2}"/>
-    <cellStyle name="RangeName" xfId="608" xr:uid="{D2C38720-1149-4620-ABEA-19FAFCA4971F}"/>
-    <cellStyle name="SAPBEXaggData" xfId="609" xr:uid="{3B67CA5E-9130-4ABA-A8E7-FACEE00F9AA3}"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="610" xr:uid="{57673495-514C-441F-9F4D-1108BDA20EC9}"/>
-    <cellStyle name="SAPBEXaggItem" xfId="611" xr:uid="{0AC08C42-BB24-43C5-B432-7E7C03A45074}"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="612" xr:uid="{2599A272-F651-43C8-B0D2-DDEF02C774E9}"/>
-    <cellStyle name="SAPBEXchaText" xfId="613" xr:uid="{38D945D5-D480-4BCC-8E58-061BE390602B}"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="614" xr:uid="{83D19982-C6B5-4BC3-A129-45288AF970A6}"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="615" xr:uid="{49C5B956-94C7-4D1C-AE42-C41644D7BBBF}"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="616" xr:uid="{AC5EC114-6C86-412E-8234-6008A3629274}"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="617" xr:uid="{BC18BB91-F1A5-45A8-AC6D-92EE27ACB0F6}"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="618" xr:uid="{913E9DF0-2DDF-4E3B-A1A2-E202DB6E1144}"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="619" xr:uid="{0B665A35-AB25-4EF9-939C-F76C5F7AC622}"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="620" xr:uid="{8733C0D4-34B0-48D0-BFCB-AD5B5EE76C86}"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="621" xr:uid="{62B3AE1B-FB9F-47A8-89F5-692DA42E3F7B}"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="622" xr:uid="{9B28AD02-F72A-435E-854F-FC9EE64D1603}"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="623" xr:uid="{5E12FB27-5601-4752-B5C6-A8D527724D82}"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="624" xr:uid="{F96F56A2-2F13-461B-8A83-E4B59CCC4FC5}"/>
-    <cellStyle name="SAPBEXfilterText" xfId="625" xr:uid="{1FF906D6-5866-4501-A10B-FE01DE7C86F7}"/>
-    <cellStyle name="SAPBEXformats" xfId="626" xr:uid="{4F6CCE66-351A-47D5-854D-90D8A3384623}"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="627" xr:uid="{8383114D-9482-4FB2-B5FE-584C0E6265B2}"/>
-    <cellStyle name="SAPBEXheaderText" xfId="628" xr:uid="{1513EB8B-A348-4CC7-86D6-63626CFC810C}"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="629" xr:uid="{054D4F5B-8684-44E2-846A-9691D4ED88FF}"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="630" xr:uid="{AA6E766F-808F-436C-AABC-805CC76E55BD}"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="631" xr:uid="{B0CBEF7D-120C-4E90-A156-254589DE1293}"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="632" xr:uid="{CDCEF3D4-09AB-463F-B2C2-2C585C79DBD3}"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="633" xr:uid="{D43F4682-FD29-4AA9-AE18-07EA625EB315}"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="634" xr:uid="{F921EC10-57BD-45FB-B548-E9279D6092ED}"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="635" xr:uid="{0D81C9CA-8088-459D-A1B6-853A1A86032A}"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="636" xr:uid="{2197D5F2-57F2-44C0-AEF4-B38001647C56}"/>
-    <cellStyle name="SAPBEXresData" xfId="637" xr:uid="{E8DC9F11-EE15-4726-826D-4755D974F137}"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="638" xr:uid="{3974E3CA-F92C-4460-9001-DFC7D191DF5D}"/>
-    <cellStyle name="SAPBEXresItem" xfId="639" xr:uid="{4AC2996A-3E84-4229-AD9A-BB7FCB790245}"/>
-    <cellStyle name="SAPBEXresItemX" xfId="640" xr:uid="{790CFA8B-CA8B-4C01-8383-7C8692BFCC92}"/>
-    <cellStyle name="SAPBEXstdData" xfId="641" xr:uid="{601DE8BD-C9E7-41DE-8138-1D2251559797}"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="642" xr:uid="{812FB30A-2381-4460-AC64-3E5054784639}"/>
-    <cellStyle name="SAPBEXstdItem" xfId="643" xr:uid="{1894E3E1-A5FC-42CF-9767-BFA3A5BB6CB3}"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="644" xr:uid="{46DE7CE1-E732-43A3-9119-630D543FE33C}"/>
-    <cellStyle name="SAPBEXtitle" xfId="645" xr:uid="{E8CBA2F3-D0D5-4B52-92A3-375851127DBC}"/>
-    <cellStyle name="SAPBEXundefined" xfId="646" xr:uid="{AB03CA7A-85C7-4E01-872B-79C9512E43AD}"/>
-    <cellStyle name="Schlecht 2" xfId="647" xr:uid="{F00FED4E-DD51-4ADC-9F04-EE2786E6F4AF}"/>
-    <cellStyle name="Shade" xfId="648" xr:uid="{487E5C8C-FE73-479A-9256-838889BE991F}"/>
-    <cellStyle name="Standaard_Blad1" xfId="649" xr:uid="{5562D4AA-E814-4044-93D7-0EF62498AFA9}"/>
-    <cellStyle name="Standard 10" xfId="650" xr:uid="{77019F4A-11B2-4991-9A19-558845144F43}"/>
-    <cellStyle name="Standard 11" xfId="651" xr:uid="{013E3285-1A4A-4052-80C3-862E1BA64C69}"/>
-    <cellStyle name="Standard 11 2" xfId="652" xr:uid="{F5E51A9A-229D-490A-96F7-E7D273A25008}"/>
-    <cellStyle name="Standard 11 3" xfId="653" xr:uid="{F0D36B24-91DF-4F51-963A-05FAFAC490D7}"/>
-    <cellStyle name="Standard 11 4" xfId="654" xr:uid="{18F47343-16B1-495A-BABE-4F0874E03137}"/>
-    <cellStyle name="Standard 12" xfId="655" xr:uid="{6B86BC8F-C7AF-459A-9F32-07034EAA026A}"/>
-    <cellStyle name="Standard 13" xfId="656" xr:uid="{AB9EBF45-7564-46C3-9912-103F1204A863}"/>
-    <cellStyle name="Standard 2" xfId="657" xr:uid="{59A32A66-92F5-4C75-ABE9-6E18DDE7C85A}"/>
-    <cellStyle name="Standard 2 2" xfId="658" xr:uid="{2ABAD0BE-DDEF-4B10-ADDB-6DF53C46AA28}"/>
-    <cellStyle name="Standard 2 3" xfId="659" xr:uid="{F77F175D-9601-474B-8C54-B44BC5A37974}"/>
-    <cellStyle name="Standard 2 3 2" xfId="660" xr:uid="{A87E858F-17D5-43DE-8E28-2CA06A5348A7}"/>
-    <cellStyle name="Standard 2 3 3" xfId="661" xr:uid="{17A8C5BB-D6CE-4931-83E8-44DD17792DA3}"/>
-    <cellStyle name="Standard 2 4" xfId="662" xr:uid="{C2E82D89-25C6-457C-A137-56E2B718DCC0}"/>
-    <cellStyle name="Standard 2 4 2" xfId="663" xr:uid="{F4BBD02C-352B-4CE8-83AE-1E132311E7ED}"/>
-    <cellStyle name="Standard 2 4 3" xfId="664" xr:uid="{7F396EFE-D497-4EE5-9CF7-D9C71B3522C7}"/>
-    <cellStyle name="Standard 2 5" xfId="665" xr:uid="{F870AC46-D1A1-4B2B-B69D-8A9A91B9E5B6}"/>
-    <cellStyle name="Standard 3" xfId="666" xr:uid="{A7C958C7-404D-419C-A2E9-B356A8CCD628}"/>
-    <cellStyle name="Standard 3 2" xfId="667" xr:uid="{C953E115-A7C1-45F1-8C6C-3039262E594E}"/>
-    <cellStyle name="Standard 4" xfId="668" xr:uid="{8AD7F334-3C11-4FE2-BAED-3B3E7D0FACF9}"/>
-    <cellStyle name="Standard 4 2" xfId="669" xr:uid="{56CCE90A-5A7B-44B8-A51C-95C4F6AA41E0}"/>
-    <cellStyle name="Standard 5" xfId="670" xr:uid="{B01F1C79-39E5-4B9D-BCF1-A6D656BC2B12}"/>
-    <cellStyle name="Standard 5 2" xfId="671" xr:uid="{BF215E0D-6ACF-4906-B0F3-1B295CD7595B}"/>
-    <cellStyle name="Standard 5 2 2" xfId="672" xr:uid="{93D4E54F-008D-4B35-AD69-BC273368C3C0}"/>
-    <cellStyle name="Standard 5 2 2 2" xfId="673" xr:uid="{CB4A1CAD-D69A-4225-B452-8A38C417E558}"/>
-    <cellStyle name="Standard 5 2 2 3" xfId="674" xr:uid="{4E2557AA-50B7-41FA-AE93-F34C7253909C}"/>
-    <cellStyle name="Standard 5 2 3" xfId="675" xr:uid="{905A8573-78EB-43CD-9868-9549D6C8A8E8}"/>
-    <cellStyle name="Standard 5 2 3 2" xfId="676" xr:uid="{407F5B47-F8BE-4A5F-91B9-26A070A54502}"/>
-    <cellStyle name="Standard 5 2 3 3" xfId="677" xr:uid="{D5956C0E-9E28-4923-A3F7-8B9356700649}"/>
-    <cellStyle name="Standard 5 2 4" xfId="678" xr:uid="{93CBCC5D-9EC8-41CA-A94A-9AD88B2F6219}"/>
-    <cellStyle name="Standard 5 2 5" xfId="679" xr:uid="{20FA95E6-CD2E-4670-8EF5-0CC2DF7E36EF}"/>
-    <cellStyle name="Standard 5 2_ELC_Processes" xfId="680" xr:uid="{6BA6A629-4391-4774-8584-C6C91ABDDCD9}"/>
-    <cellStyle name="Standard 5 3" xfId="681" xr:uid="{CE0C1863-DBB3-4B8A-BBF7-C681EA9D1D1C}"/>
-    <cellStyle name="Standard 5 3 2" xfId="682" xr:uid="{4CB3C2D7-5AF2-44D0-AE72-237706780B32}"/>
-    <cellStyle name="Standard 5 3 3" xfId="683" xr:uid="{9683881C-28F1-4DE8-B352-6FD950B65689}"/>
-    <cellStyle name="Standard 5 4" xfId="684" xr:uid="{A4EAC1CD-05A5-4C53-ACF3-1A26AA6D2FDD}"/>
-    <cellStyle name="Standard 5 4 2" xfId="685" xr:uid="{87208237-B6D9-49CE-9E2E-2AC46C0DB479}"/>
-    <cellStyle name="Standard 5 4 3" xfId="686" xr:uid="{E15E0372-6B35-43C3-85C0-F6BF5AA24FAB}"/>
-    <cellStyle name="Standard 5 5" xfId="687" xr:uid="{C53AC12B-5EDE-4E89-879B-54A8ABF7D8D5}"/>
-    <cellStyle name="Standard 5 5 2" xfId="688" xr:uid="{CB714DE9-4E14-49B3-B8C4-C36E35713FBB}"/>
-    <cellStyle name="Standard 5 5 3" xfId="689" xr:uid="{E6DF030A-E934-437E-93E4-2131A206E53C}"/>
-    <cellStyle name="Standard 5 6" xfId="690" xr:uid="{C5E12437-747C-49E8-AAE9-71D914D41B94}"/>
-    <cellStyle name="Standard 5 7" xfId="691" xr:uid="{D2F32B6D-65D1-4793-A612-52A65FDED177}"/>
-    <cellStyle name="Standard 5_ELC_Processes" xfId="692" xr:uid="{DC8AE6F4-540C-4C40-B62F-2A889A182D17}"/>
-    <cellStyle name="Standard 6" xfId="693" xr:uid="{8C74AD9C-1E3B-41AE-BAF6-96121D5DA697}"/>
-    <cellStyle name="Standard 6 2" xfId="694" xr:uid="{5EFDC848-AAE4-4856-BE06-8BC8DB364CD4}"/>
-    <cellStyle name="Standard 7" xfId="695" xr:uid="{84759398-3676-4780-AD3C-8AEFC8FD80C3}"/>
-    <cellStyle name="Standard 8" xfId="696" xr:uid="{EE9D4AF6-6B61-408A-B288-4DC73D506695}"/>
-    <cellStyle name="Standard 8 2" xfId="697" xr:uid="{F0AC2267-1FF0-4414-88F2-1F87360C2D8A}"/>
-    <cellStyle name="Standard 8 3" xfId="698" xr:uid="{2050D6DE-2B6C-451E-8FC3-E33B31F3D924}"/>
-    <cellStyle name="Standard 9" xfId="699" xr:uid="{D8931698-CAAE-4C62-A6DD-9B49EED822C1}"/>
-    <cellStyle name="Standard 9 2" xfId="700" xr:uid="{D7B5CB96-C7F1-496C-A665-118D01181251}"/>
-    <cellStyle name="Standard 9 3" xfId="701" xr:uid="{A03F534C-40D0-4B8B-BA70-8FB324F18E97}"/>
-    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="702" xr:uid="{24D8EA79-0FC0-4E30-84E6-65955C262F7A}"/>
-    <cellStyle name="Style 21" xfId="703" xr:uid="{A0CF830C-6F6E-465A-8BFA-3CA6420B4793}"/>
-    <cellStyle name="Style 22" xfId="704" xr:uid="{E7886610-7F74-40E0-9979-8C4E2556E418}"/>
-    <cellStyle name="Style 23" xfId="705" xr:uid="{B1110DA8-18FB-4363-82A2-279E0F62AEE6}"/>
-    <cellStyle name="Style 24" xfId="706" xr:uid="{E63BD618-27D5-40C8-8263-8C2F5500F737}"/>
-    <cellStyle name="Style 25" xfId="707" xr:uid="{49335FD0-68AC-4919-9112-1429308635D7}"/>
-    <cellStyle name="Style 26" xfId="708" xr:uid="{E74F8472-48B5-4D2F-AFB8-200284C3E8C8}"/>
-    <cellStyle name="Style 27" xfId="709" xr:uid="{C72C33C5-A498-437A-8E1E-08C68A03464A}"/>
-    <cellStyle name="Style 28" xfId="710" xr:uid="{0BA57490-3F2E-43C1-92BD-99274CC19A80}"/>
-    <cellStyle name="Style 29" xfId="711" xr:uid="{BF385020-882E-4162-B9AD-40947052D8EC}"/>
-    <cellStyle name="Style 30" xfId="712" xr:uid="{BE5E4553-9C49-4E94-A4F7-8F18C3E85767}"/>
-    <cellStyle name="Style 31" xfId="713" xr:uid="{88B0F43A-195F-4537-B555-3971D3324D1C}"/>
-    <cellStyle name="Style 32" xfId="714" xr:uid="{7C4AFE83-C6D5-42F9-96A7-61C5A70BA2FC}"/>
-    <cellStyle name="Style 33" xfId="715" xr:uid="{69DCD2C0-13CE-4F73-97D6-83C87F9B58F0}"/>
-    <cellStyle name="Style 34" xfId="716" xr:uid="{15D1498C-662F-466C-A620-A14B7437F318}"/>
-    <cellStyle name="Style 35" xfId="717" xr:uid="{BF0E7955-63A2-4462-9A91-DC4F10506ECF}"/>
-    <cellStyle name="Suma" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 10" xfId="718" xr:uid="{7900BBBA-9989-4386-B1D3-F8166497E884}"/>
-    <cellStyle name="Suma 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Suma 9" xfId="719" xr:uid="{91E581E9-E484-42FD-9C65-D0665BB0BE4E}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 10" xfId="720" xr:uid="{DA25594D-179F-4F4E-AB60-667FFB61B4B3}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst objaśnienia 9" xfId="721" xr:uid="{A471691E-6CCC-4FBA-A8A8-17E55F08E0D1}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10" xfId="722" xr:uid="{F4085400-B388-437E-B807-26FDAD2B6B13}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9" xfId="723" xr:uid="{F3AC9445-F3EE-49DC-AF7E-420B7343759D}"/>
-    <cellStyle name="Title" xfId="724" xr:uid="{D05CA54D-2CD5-4B59-9BEF-CBE9CB958258}"/>
-    <cellStyle name="Total" xfId="725" xr:uid="{7D3E648A-FED0-446E-9340-DF6E7E7058D1}"/>
-    <cellStyle name="Total 10" xfId="726" xr:uid="{33E749C2-0E79-4C69-AE70-1B9069995241}"/>
-    <cellStyle name="Total 11" xfId="727" xr:uid="{7E9A9EBB-2D77-4176-92F5-F10BCF3AC871}"/>
-    <cellStyle name="Total 12" xfId="728" xr:uid="{C59DDF61-B5FC-4FF7-87D9-DFBF947D2550}"/>
-    <cellStyle name="Total 13" xfId="729" xr:uid="{AF47AAED-83B8-4660-8379-1CEB8A5984FD}"/>
-    <cellStyle name="Total 14" xfId="730" xr:uid="{025F3B02-AC77-4939-AB99-D513DB49A4BD}"/>
-    <cellStyle name="Total 15" xfId="731" xr:uid="{CA2EE74B-DF31-4124-9141-927E7FE3CA0B}"/>
-    <cellStyle name="Total 16" xfId="732" xr:uid="{961072F2-B6EE-403D-9AA2-CC046F5EBA68}"/>
-    <cellStyle name="Total 17" xfId="733" xr:uid="{50CF0985-AC23-452C-9F24-8BDD863D1A81}"/>
-    <cellStyle name="Total 18" xfId="734" xr:uid="{44880F41-8CFE-45D2-9CBA-3DDC04414E0B}"/>
-    <cellStyle name="Total 19" xfId="735" xr:uid="{30763BD9-79A1-482C-BDE9-F5F44D8B6BA6}"/>
-    <cellStyle name="Total 2" xfId="736" xr:uid="{21933AF1-FC0C-4F9F-8F5A-0C38068B7135}"/>
-    <cellStyle name="Total 3" xfId="737" xr:uid="{47ADC561-758D-4C64-9944-3562C557991F}"/>
-    <cellStyle name="Total 4" xfId="738" xr:uid="{3A38942D-0FCE-4CCF-983A-A6A9AA47BE8F}"/>
-    <cellStyle name="Total 5" xfId="739" xr:uid="{39502C7A-2DA6-4751-8F1B-B6111AF0F009}"/>
-    <cellStyle name="Total 6" xfId="740" xr:uid="{1EB697A1-2D51-405A-BC32-ABA76117155D}"/>
-    <cellStyle name="Total 7" xfId="741" xr:uid="{59FA5216-ADD7-4C4D-AA92-41035D9AF20B}"/>
-    <cellStyle name="Total 8" xfId="742" xr:uid="{AB0C1981-C349-446B-8BFF-258AFED9234A}"/>
-    <cellStyle name="Total 9" xfId="743" xr:uid="{E47009B5-A693-458B-9736-627785B87F4C}"/>
-    <cellStyle name="Tytuł" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Tytuł 2" xfId="744" xr:uid="{19159FC0-1601-442C-8644-5ADB31397A5B}"/>
-    <cellStyle name="Tytuł 3" xfId="745" xr:uid="{EB1929A3-3DC1-4688-B9B9-515668432B37}"/>
-    <cellStyle name="Überschrift 1 2" xfId="746" xr:uid="{27A51AEC-2ACB-4CD4-BE56-784C434AE37E}"/>
-    <cellStyle name="Überschrift 2 2" xfId="747" xr:uid="{017CAB1D-D46D-4F23-9A05-C0CDCEA636F9}"/>
-    <cellStyle name="Überschrift 3 2" xfId="748" xr:uid="{A57E6D64-5B0F-4245-B67F-115E0C5EBF53}"/>
-    <cellStyle name="Überschrift 4 2" xfId="749" xr:uid="{30100B77-B855-490D-AE76-92B3B4346801}"/>
-    <cellStyle name="Überschrift 5" xfId="750" xr:uid="{0D807954-7DC5-462F-873B-467E3D8AD16D}"/>
-    <cellStyle name="Unprot" xfId="751" xr:uid="{BD821218-E25E-49FC-B558-2D55570A6B4C}"/>
-    <cellStyle name="Unprot$" xfId="752" xr:uid="{4FF959F4-8DEA-4184-80ED-535D88D18BD9}"/>
-    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="753" xr:uid="{AF32BB18-8E9E-43A0-8E55-50C591140CEA}"/>
-    <cellStyle name="Unprotect" xfId="754" xr:uid="{04FEA184-9BE5-4CC7-9F2B-0D3D3D672674}"/>
-    <cellStyle name="Uwaga" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 10" xfId="755" xr:uid="{7585263E-FA18-4EDE-9CB5-85E4307DD2BD}"/>
-    <cellStyle name="Uwaga 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Uwaga 9" xfId="756" xr:uid="{81B4482F-411C-47BE-BECB-739F4DD300AE}"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="757" xr:uid="{CBCEA660-5234-4656-988A-A516018B4D83}"/>
-    <cellStyle name="Währung 2" xfId="758" xr:uid="{EFD7F0B6-18E8-465F-A2BD-A40F2B1F7342}"/>
-    <cellStyle name="Währung 2 2" xfId="759" xr:uid="{89778395-86B6-47BB-AC3E-33494ACA44B4}"/>
-    <cellStyle name="Warnender Text 2" xfId="760" xr:uid="{229236F8-D0D8-4268-80D1-AE9913075DD6}"/>
-    <cellStyle name="Warning Text" xfId="761" xr:uid="{5666C769-346C-46E9-A2F1-7A57036CFB34}"/>
-    <cellStyle name="X10_Figs 21 dec" xfId="762" xr:uid="{538A0C4C-C4D5-47D9-A25F-2FCC0A2B5076}"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="763" xr:uid="{A2758924-6277-42E2-882B-10A1D3D10D35}"/>
-    <cellStyle name="Złe" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 10" xfId="764" xr:uid="{8A42077C-233F-4124-8E93-14666B176096}"/>
-    <cellStyle name="Złe 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="Złe 9" xfId="765" xr:uid="{38CC17F7-DB16-4739-BAC9-B0C3B437DC99}"/>
-    <cellStyle name="Обычный_2++_CRFReport-template" xfId="766" xr:uid="{146AFA9F-4E59-4587-B502-8D794B232472}"/>
-    <cellStyle name="已访问的超链接" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Suma" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Suma 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Suma 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Suma 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Suma 5" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Suma 6" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Suma 7" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Suma 8" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Tytuł" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Uwaga" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Uwaga 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Uwaga 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Uwaga 4" xfId="325" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Uwaga 5" xfId="326" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Uwaga 6" xfId="327" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Uwaga 7" xfId="328" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Uwaga 8" xfId="329" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Złe" xfId="330" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Złe 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Złe 3" xfId="332" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Złe 4" xfId="333" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Złe 5" xfId="334" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Złe 6" xfId="335" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Złe 7" xfId="336" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Złe 8" xfId="337" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="已访问的超链接" xfId="338" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5226,8 +3665,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5269,7 +3708,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="135" t="s">
+      <c r="K3" s="123" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5286,7 +3725,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="135"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -5315,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="135"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
@@ -5344,7 +3783,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="135"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -5367,7 +3806,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="135"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -5390,7 +3829,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="135"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -5398,12 +3837,12 @@
         <v>18</v>
       </c>
       <c r="C9" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="73"/>
@@ -5413,7 +3852,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="135"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -5421,22 +3860,22 @@
         <v>18</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="74" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="70" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="135"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="66"/>
@@ -5449,7 +3888,7 @@
       <c r="H11" s="82"/>
       <c r="I11" s="82"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="135"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="83"/>
@@ -5462,14 +3901,14 @@
       <c r="H12" s="84"/>
       <c r="I12" s="84"/>
       <c r="J12" s="85"/>
-      <c r="K12" s="135"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="134"/>
+      <c r="C15" s="122"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="86" t="s">
@@ -5526,10 +3965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5644,197 +4083,197 @@
         <v>58</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="70" t="s">
+      <c r="B8" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="G8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="70" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="70" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F9" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="74" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>61</v>
+        <v>131</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="70" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="71"/>
-      <c r="D11" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="71" t="s">
+      <c r="D11" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>22</v>
+      <c r="G11" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>26</v>
       </c>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="75" t="s">
+      <c r="G12" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="97" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="97" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="97" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="97" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E22" s="97" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="97" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E23" s="97" t="s">
         <v>75</v>
@@ -5842,31 +4281,9 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="97" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="97" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="97" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5883,8 +4300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6063,11 +4480,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="str">
-        <f>SEC_Processes!D10</f>
+        <f>SEC_Processes!D8</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>SEC_Processes!E10</f>
+        <f>SEC_Processes!E8</f>
         <v>Brown Coal Mine</v>
       </c>
       <c r="D8" s="14" t="str">
@@ -6083,18 +4500,18 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="16" t="str">
-        <f>SEC_Processes!D11</f>
+        <f>SEC_Processes!D9</f>
         <v>MIN_EX_WIND_ON</v>
       </c>
       <c r="C9" s="16" t="str">
-        <f>SEC_Processes!E11</f>
+        <f>SEC_Processes!E9</f>
         <v>Wind Mine</v>
       </c>
       <c r="D9" s="17" t="str">
         <f>SEC_Comm!C9</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="19">
         <v>1E-3</v>
       </c>
       <c r="F9" s="18"/>
@@ -6106,13 +4523,13 @@
       </c>
       <c r="C10" s="11" t="str">
         <f>SEC_Processes!E12</f>
-        <v>PV</v>
+        <v>PV Mine</v>
       </c>
       <c r="D10" s="15" t="str">
         <f>SEC_Comm!C10</f>
-        <v>PV</v>
-      </c>
-      <c r="E10" s="125">
+        <v>PV_ELE</v>
+      </c>
+      <c r="E10" s="13">
         <v>1E-3</v>
       </c>
       <c r="F10" s="12"/>
@@ -6139,7 +4556,7 @@
       <c r="F13" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6148,10 +4565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6328,23 +4745,23 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="110" t="str">
-        <f>SEC_Processes!D9</f>
+        <f>SEC_Processes!D11</f>
         <v>ELE_EX_PV</v>
       </c>
       <c r="C9" s="110" t="str">
-        <f>SEC_Processes!E9</f>
-        <v>Photovoltaic Farm</v>
+        <f>SEC_Processes!E11</f>
+        <v>PV Instalation</v>
       </c>
       <c r="D9" s="111" t="str">
         <f>SEC_Comm!C10</f>
-        <v>PV</v>
+        <v>PV_ELE</v>
       </c>
       <c r="E9" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F9" s="112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="112">
         <v>1</v>
@@ -6353,27 +4770,27 @@
         <v>31.536000000000001</v>
       </c>
       <c r="I9" s="113">
-        <v>0.55000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="J9" s="114">
         <v>1</v>
       </c>
       <c r="K9" s="113"/>
     </row>
-    <row r="10" spans="2:12" ht="13.5" thickBot="1">
+    <row r="10" spans="2:12">
       <c r="B10" s="115" t="str">
-        <f>SEC_Processes!D8</f>
+        <f>SEC_Processes!D10</f>
         <v>ELE_EX_WIND_TURBINE</v>
       </c>
-      <c r="C10" s="116" t="str">
-        <f>SEC_Processes!E8</f>
+      <c r="C10" s="115" t="str">
+        <f>SEC_Processes!E10</f>
         <v>Wind Turbine Onshore</v>
       </c>
       <c r="D10" s="116" t="str">
         <f>SEC_Comm!C9</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E10" s="123" t="str">
+      <c r="E10" s="116" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
@@ -6384,6 +4801,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="118">
+        <f>H8</f>
         <v>31.536000000000001</v>
       </c>
       <c r="I10" s="118">
@@ -6392,7 +4810,7 @@
       <c r="J10" s="119">
         <v>1</v>
       </c>
-      <c r="K10" s="121"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="120"/>
@@ -6400,58 +4818,21 @@
     <row r="16" spans="2:12">
       <c r="E16" s="120"/>
     </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="97" t="s">
+    <row r="17" spans="4:5">
+      <c r="D17" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="58">
-        <f>F10*H10</f>
-        <v>42.41592</v>
-      </c>
-      <c r="F19" s="58">
-        <f>F9*H9</f>
-        <v>126.14400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="97" t="s">
+      <c r="E17" s="58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="58">
-        <f>E19*I10</f>
-        <v>13.997253600000001</v>
-      </c>
-      <c r="F20" s="58">
-        <f>F19*I9</f>
-        <v>69.379200000000012</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="58">
-        <f>E28/G8</f>
+      <c r="E18" s="58">
+        <f>100/G8</f>
         <v>333.33333333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="E30" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="E31" s="58">
-        <f>E29+E30</f>
-        <v>334.33333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -6463,10 +4844,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K38"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="141" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6633,11 +5014,11 @@
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="110" t="str">
@@ -6665,65 +5046,6 @@
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
       <c r="E19" s="117"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="107"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="49"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="2:7" ht="13.5" thickBot="1">
-      <c r="B25" s="24"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="131"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="130"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="129"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="130"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="129"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="130"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="129"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="130"/>
-    </row>
-    <row r="33" spans="2:4" ht="13.5" thickBot="1">
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="128"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="D38" s="127">
-        <f>SUM(D26:D33)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6739,7 +5061,7 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6799,11 +5121,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -6858,6 +5180,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7001,12 +5329,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
@@ -7016,6 +5338,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7031,13 +5362,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>